--- a/配置表/t题库.xlsx
+++ b/配置表/t题库.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1250">
   <si>
     <t>字段说明</t>
   </si>
@@ -107,66 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到40个左右题目的范围内1+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到41个左右题目的范围内2+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到42个左右题目的范围内3+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到43个左右题目的范围内4+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到44个左右题目的范围内5+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到45个左右题目的范围内6+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到46个左右题目的范围内7+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到47个左右题目的范围内8+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到48个左右题目的范围内9+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到49个左右题目的范围内10+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到50个左右题目的范围内11+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到51个左右题目的范围内12+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到52个左右题目的范围内13+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到53个左右题目的范围内14+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到54个左右题目的范围内15+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到55个左右题目的范围内16+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到56个左右题目的范围内17+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到57个左右题目的范围内18+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到58个左右题目的范围内19+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到59个左右题目的范围内20+1=</t>
-  </si>
-  <si>
     <t>前面一堆无用的字都是在凑数，为的是把字数凑到60个左右题目的范围内21+1=</t>
   </si>
   <si>
@@ -707,87 +647,6 @@
     <t>前面一堆无用的字都是在凑数，为的是把字数凑到239个左右题目的范围内200+1=</t>
   </si>
   <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到240个左右题目的范围内201+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到241个左右题目的范围内202+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到242个左右题目的范围内203+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到243个左右题目的范围内204+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到244个左右题目的范围内205+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到245个左右题目的范围内206+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到246个左右题目的范围内207+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到247个左右题目的范围内208+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到248个左右题目的范围内209+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到249个左右题目的范围内210+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到250个左右题目的范围内211+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到251个左右题目的范围内212+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到252个左右题目的范围内213+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到253个左右题目的范围内214+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到254个左右题目的范围内215+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到255个左右题目的范围内216+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到256个左右题目的范围内217+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到257个左右题目的范围内218+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到258个左右题目的范围内219+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到259个左右题目的范围内220+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到260个左右题目的范围内221+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到261个左右题目的范围内222+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到262个左右题目的范围内223+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到263个左右题目的范围内224+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到264个左右题目的范围内225+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到265个左右题目的范围内226+1=</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到266个左右题目的范围内227+1=</t>
-  </si>
-  <si>
     <t>前面一堆无用的字都是在凑数，为的是把字数凑到267个左右题目的范围内228+1=</t>
   </si>
   <si>
@@ -1907,66 +1766,6 @@
     <t>前面一堆无用的字都是在凑数，为的是把字数凑到639个左右题目的范围内600+1=</t>
   </si>
   <si>
-    <t>[8字符以内答案2,8字符以内答案4,8字符以内答案3,8字符以内答案5]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案3,8字符以内答案5,8字符以内答案4,8字符以内答案6]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案4,8字符以内答案6,8字符以内答案5,8字符以内答案7]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案5,8字符以内答案7,8字符以内答案6,8字符以内答案8]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案6,8字符以内答案8,8字符以内答案7,8字符以内答案9]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案7,8字符以内答案9,8字符以内答案8,8字符以内答案10]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案8,8字符以内答案10,8字符以内答案9,8字符以内答案11]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案9,8字符以内答案11,8字符以内答案10,8字符以内答案12]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案10,8字符以内答案12,8字符以内答案11,8字符以内答案13]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案11,8字符以内答案13,8字符以内答案12,8字符以内答案14]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案12,8字符以内答案14,8字符以内答案13,8字符以内答案15]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案13,8字符以内答案15,8字符以内答案14,8字符以内答案16]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案14,8字符以内答案16,8字符以内答案15,8字符以内答案17]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案15,8字符以内答案17,8字符以内答案16,8字符以内答案18]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案16,8字符以内答案18,8字符以内答案17,8字符以内答案19]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案17,8字符以内答案19,8字符以内答案18,8字符以内答案20]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案18,8字符以内答案20,8字符以内答案19,8字符以内答案21]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案19,8字符以内答案21,8字符以内答案20,8字符以内答案22]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案20,8字符以内答案22,8字符以内答案21,8字符以内答案23]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案21,8字符以内答案23,8字符以内答案22,8字符以内答案24]</t>
-  </si>
-  <si>
     <t>[8字符以内答案22,8字符以内答案24,8字符以内答案23,8字符以内答案25]</t>
   </si>
   <si>
@@ -2507,87 +2306,6 @@
     <t>[8字符以内答案201,8字符以内答案203,8字符以内答案202,8字符以内答案204]</t>
   </si>
   <si>
-    <t>[8字符以内答案202,8字符以内答案204,8字符以内答案203,8字符以内答案205]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案203,8字符以内答案205,8字符以内答案204,8字符以内答案206]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案204,8字符以内答案206,8字符以内答案205,8字符以内答案207]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案205,8字符以内答案207,8字符以内答案206,8字符以内答案208]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案206,8字符以内答案208,8字符以内答案207,8字符以内答案209]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案207,8字符以内答案209,8字符以内答案208,8字符以内答案210]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案208,8字符以内答案210,8字符以内答案209,8字符以内答案211]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案209,8字符以内答案211,8字符以内答案210,8字符以内答案212]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案210,8字符以内答案212,8字符以内答案211,8字符以内答案213]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案211,8字符以内答案213,8字符以内答案212,8字符以内答案214]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案212,8字符以内答案214,8字符以内答案213,8字符以内答案215]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案213,8字符以内答案215,8字符以内答案214,8字符以内答案216]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案214,8字符以内答案216,8字符以内答案215,8字符以内答案217]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案215,8字符以内答案217,8字符以内答案216,8字符以内答案218]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案216,8字符以内答案218,8字符以内答案217,8字符以内答案219]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案217,8字符以内答案219,8字符以内答案218,8字符以内答案220]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案218,8字符以内答案220,8字符以内答案219,8字符以内答案221]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案219,8字符以内答案221,8字符以内答案220,8字符以内答案222]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案220,8字符以内答案222,8字符以内答案221,8字符以内答案223]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案221,8字符以内答案223,8字符以内答案222,8字符以内答案224]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案222,8字符以内答案224,8字符以内答案223,8字符以内答案225]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案223,8字符以内答案225,8字符以内答案224,8字符以内答案226]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案224,8字符以内答案226,8字符以内答案225,8字符以内答案227]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案225,8字符以内答案227,8字符以内答案226,8字符以内答案228]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案226,8字符以内答案228,8字符以内答案227,8字符以内答案229]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案227,8字符以内答案229,8字符以内答案228,8字符以内答案230]</t>
-  </si>
-  <si>
-    <t>[8字符以内答案228,8字符以内答案230,8字符以内答案229,8字符以内答案231]</t>
-  </si>
-  <si>
     <t>[8字符以内答案229,8字符以内答案231,8字符以内答案230,8字符以内答案232]</t>
   </si>
   <si>
@@ -3705,6 +3423,384 @@
   </si>
   <si>
     <t>[8字符以内答案601,8字符以内答案603,8字符以内答案602,8字符以内答案604]</t>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老母鸡含有过多的鸡油，其肌肉弹力纤维减少，结缔组织老化，鸡肉粗韧，久煮难烂，不易胃肠消化吸收。</t>
+  </si>
+  <si>
+    <t>虽然醋不仅能增进食欲，还能保护蔬菜中的维生素C，有利于胃肠对维生素C的吸收，且在降血压、预防流感上也有一定的效果。但是醋食用过量，会灼伤食道、腐蚀胃粘膜、还会软化骨质，加重骨质疏松，导致骨折。</t>
+  </si>
+  <si>
+    <t>口香糖含有的糖分会在口腔中发酵产酸，腐蚀牙齿形成龋齿。另外口香糖中含有硫化物、防老化剂、增塑剂等添加物，都有一定的毒性，对健康不利。</t>
+  </si>
+  <si>
+    <t>60岁以上老年人，每天推荐摄入1000毫克的钙，过量补钙，不仅不会强壮骨骼，还可能危害健康。最安全有效的补钙方式是日常饮食中适当多吃奶制品、小白菜、豆腐干等含钙丰富的食物，还要戒烟、适量运动，减少骨量流失。
+人体对钙的吸收有一点的限度，需求量也因年龄的不同而异。特别是儿童，如果补钙过量，可能导致身体浮肿、多汗、厌食、恶心、便秘、消化不良，严重的还容易引起高钙尿症。</t>
+  </si>
+  <si>
+    <t>牛奶中所含的胆固醇并不高，而且喝牛奶还有助于减少冠心病和高血压病的发生。但不能空腹喝牛奶，因为空腹喝牛奶不利于营养的吸收和利用。</t>
+  </si>
+  <si>
+    <t>俗话说“欲要小儿安，三分饥与寒”，此话是有一定道理的。现在小孩子的营养条件普遍很好，能获得各类营养食品，但小孩子脾胃功能较弱，消化功能发育未完善，多食容易导致消化不良，出现积食或腹泻。</t>
+  </si>
+  <si>
+    <t>高血压、高血脂等疾病当然与不健康的饮食习惯有关。但是盐、油中含有得各类无机盐、油脂是维持正常生命活动的重要物质保证。长期不吃钠盐，体内缺少钠会导致神经衰弱，全身乏力。此外，不吃盐会使得消化液的分泌不协调，进而减少食欲。而油脂类与我们的大脑、神经、生育力等都有关系。健康的生活方式建议：
+①成年人每天吃食用盐别超6克
+②成年人每天吃食用油推荐20-30克
+③ 建议给出的是低油、低盐，而不是无油无盐</t>
+  </si>
+  <si>
+    <t>大鱼大肉，油腻饮食确实能吃出脂肪肝，但得了脂肪肝可千万别乱戒肉。肉中的蛋白质反而有利于帮助我们将脂质顺利运出肝脏。建议：① 限制肥肉、肉皮、动物内脏等高油脂、高胆固醇的食物
+② 吃肉选择鱼肉、兔肉及煮过的瘦猪肉、牛肉、鸡肉等，忌油炸、煎、炒的方法
+③一次进餐肉制品在50-75克左右为宜</t>
+  </si>
+  <si>
+    <t>由于身体机能老化，晨起后短时间内肌肉、四肢等运动器官还处于松弛状态，这时锻炼，容易摔伤、碰伤、扭伤身体。而且，清晨时血压也处于一天当中的峰值，这个时候锻炼特别容易突发心脑血管疾病。建议：有晨练的习惯的人，等太阳出来后，大约9点到10点再去活动才是最明智的。因为太阳出来前空气中的二氧化碳含量较高，即便是在森林里空气质量也较差。而且该时间段阳光充足，多晒太阳可促进钙质合成和吸收。</t>
+  </si>
+  <si>
+    <t>很多人只注意喝水的量，却忽略了在日常饮食中也会摄取水分，比如每餐吃的食物、水果、饮料都带有水分，三餐至少占了500毫升；因此，每天喝的水最好低于1600到1950毫升，否则就会饮水过量。肾脏病或心脏病患者甚至需要限制饮水量。每个人所需要的水都不一样，喝多了不但无益健康，还会造成肾脏的负担。人体摄取的水分除了经由排汗或呼吸时排出外，仍需经由肾脏来代谢，如果水喝得太多，肾脏排水量增加，会增加肾脏的负担，易让肾脏功能衰竭，反而易影响肾脏的健康；而且，体内的电解质会因为被太多的水稀释，引发电解质不平衡的危险。</t>
+  </si>
+  <si>
+    <t>穿衣服睡觉虽然会影响排汗及皮肤散热，但人体皮屑整天都在剥落，而皮屑是尘螨和霉菌的营养来源，被单和床单上也会存在些微生物，光溜溜地躺在床上，这些微生物更容易接触皮肤，裸睡反而可能增加感染的危险。</t>
+  </si>
+  <si>
+    <t>在牙冠的表面有一层珐琅质，刚吃过饭，尤其是食用了酸性食物，会使珐琅质变松软。这个时候刷牙容易造成珐琅质的损害。时间一长，牙齿的珐琅质就逐渐减少，容易使人患上牙齿本质过敏症，吃东西时牙齿就会出现酸、痛的症状。因此，进食后最好用清水漱口，待1—2个小时后再刷牙。</t>
+  </si>
+  <si>
+    <t>人在运动后马上大量饮水，会使胃肠道部分血管急剧收缩，吸收能力减弱，且使人感到胃部沉重闷胀，妨碍膈肌的活动，影响正常的呼吸，也会增加心脏负担。因此，运动后应适量补充水液，特别是盐水，不要快速大量饮水。</t>
+  </si>
+  <si>
+    <t>原国家卫生部副部长、中国工程院院士王陇德表示，胆固醇是维持正常代谢必须的物质。80%的胆固醇是内源性的，从食物中来的外源性的只占20%。鸡蛋中含有大量卵磷脂，是维持记忆和思维的物质。不吃鸡蛋或吃蛋清不吃蛋黄，会失去很多必要的营养素。
+建议： 
+正常人每天吃1个鸡蛋。
+低密度脂蛋白胆固醇偏高、患糖尿病、心血管病者每两天吃1个鸡蛋比较合适。</t>
+  </si>
+  <si>
+    <t>北京协和医院临床营养科主任医师于康表示，人体免疫系统庞大且复杂，需要的是均衡营养，而不是单一食物。很多免疫物质需要多种营养素的协同参与才能发挥作用，单靠蛋白质远远不够。如果不好好吃饭而只依赖蛋白粉，很容易缺乏其他营养素，反而会降低免疫力。</t>
+  </si>
+  <si>
+    <t>熬汤时间太长，有可能会破坏汤汁的营养。例如绿色蔬菜中的维生素C遇热极易被破坏，熬汤时间太长会导致蔬菜中的钾含量和草酸盐升高，对慢性肾脏疾病患者的健康尤为不利，可能导致肾结石等疾病发生。长时间熬汤有可能会导致动物骨骼中的蛋白质被破坏，嘌呤含量升高,易引发高尿酸血症和痛风发作。</t>
+  </si>
+  <si>
+    <t>维生素C虽然是水溶性维生素，但是煲汤后损失率达一半以上，而且剩下的也多留在汤渣里而不是汤里面；胡萝卜素是脂溶性的，通过煲汤来摄取远不如直接油炒或者煮。</t>
+  </si>
+  <si>
+    <t>长期吃汤泡米饭不利于消化健康。汤和米饭混在一起会冲淡胃肠道中消化液，使吃下去的食物不易被吸收。</t>
+  </si>
+  <si>
+    <t>进食后大量血液进入消化器官促进食物的消化，而散布、运动时会有更多血流流向四肢，故进食后散步并不利于消化吸收，长此以往也会对健康产生不良影响。因此最后在进食后30-60分钟再去进行散步、活动。</t>
+  </si>
+  <si>
+    <t>山泉水的成分无统一标准，有些会含有各种致病微生物如：病毒、细菌、寄生虫。不能因为山泉水“天然”的特性就忽略其可能存在的健康隐患。经过煮沸或其他专门处理的水喝起来才更加安全。</t>
+  </si>
+  <si>
+    <t>常吃老母鸡来补身体大有好处。</t>
+  </si>
+  <si>
+    <t>平时多喝点醋，可以预防疾病发生，有益健康。</t>
+  </si>
+  <si>
+    <t>经常咀嚼口香糖容易导致蛀牙产生。</t>
+  </si>
+  <si>
+    <t>每天多吃补钙的食物能够有效促进钙质吸收。</t>
+  </si>
+  <si>
+    <t>喝牛奶会使得胆固醇增高。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小孩子“能吃是福”，要吃多吃好来促进成长。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不吃油盐能降血压、血脂，是保持健康的途径。 </t>
+  </si>
+  <si>
+    <t>不吃肉能够减轻减脂肪肝。</t>
+  </si>
+  <si>
+    <t>晨练运动不需要追求太早，晚点去运动也无妨。</t>
+  </si>
+  <si>
+    <t>每天要喝8大杯水保健康。</t>
+  </si>
+  <si>
+    <t>裸睡是一种比较健康的生活习惯。</t>
+  </si>
+  <si>
+    <t>饭后勤刷牙可以保障口腔卫生。</t>
+  </si>
+  <si>
+    <t>运动出汗后水液流失多，应该大量喝水补充水分。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">血脂高的人不能吃蛋黄，蛋黄含有较高的胆固醇。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">吃蛋白粉能增强免疫力。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">煲汤时要细熬慢炖，老火靓汤才有健康价值。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用红萝卜煮汤可以补充胡萝卜素和维生素C。 </t>
+  </si>
+  <si>
+    <t>很多人爱吃汤泡米饭，这是一种美味而有利于消化的饮食方式。</t>
+  </si>
+  <si>
+    <t>吃完饭后应该先坐一会，不要去散步或走动。</t>
+  </si>
+  <si>
+    <t>饮用山泉水更加健康。</t>
+  </si>
+  <si>
+    <t>[错误,正确]</t>
+  </si>
+  <si>
+    <t>[正确,错误]</t>
+  </si>
+  <si>
+    <t>以下哪个不属于运动养生的原则：</t>
+  </si>
+  <si>
+    <t>不属于中国传统运动养生功法的练功要领是：</t>
+  </si>
+  <si>
+    <t>中国传统运动养生功法最重要的练功要领是：</t>
+  </si>
+  <si>
+    <t>有动作柔软、放松，适合身体偏弱者的保健拳法是</t>
+  </si>
+  <si>
+    <t>由八种不同动作组成，简单易学，老少皆宜，练习不受场地限制的传统健身术是：</t>
+  </si>
+  <si>
+    <t>后汉三国时期，是谁创编了“五禽戏”。</t>
+  </si>
+  <si>
+    <t>以下哪种动物不是养生体操五禽戏是模仿的动物：</t>
+  </si>
+  <si>
+    <t>易筋经是什么</t>
+  </si>
+  <si>
+    <t>易筋经的练习的功效不包括</t>
+  </si>
+  <si>
+    <t>相传易筋经由谁传授。</t>
+  </si>
+  <si>
+    <t>少年练习易筋经可达的效果不包括</t>
+  </si>
+  <si>
+    <t>在饭前锻炼，至少多久后才能用餐</t>
+  </si>
+  <si>
+    <t>饭后至少要休息多久才能锻炼：</t>
+  </si>
+  <si>
+    <t>为避免锻炼后过度兴奋而影响入睡，应该在临睡前多久结束锻炼</t>
+  </si>
+  <si>
+    <t>不是动静结合、运动量适宜的运动后表现</t>
+  </si>
+  <si>
+    <t>运动量过大的表现不包括</t>
+  </si>
+  <si>
+    <t>不适合运动的环境是</t>
+  </si>
+  <si>
+    <t>“流水不腐，户枢不蠹。”揭示的道理,不包括以下哪点</t>
+  </si>
+  <si>
+    <t>“九鬼拔马刀”是哪个养生功法的招式</t>
+  </si>
+  <si>
+    <t>“青龙探爪”是哪个养生功法的招式：</t>
+  </si>
+  <si>
+    <t>“卧虎扑食”是哪个养生功法的招式：</t>
+  </si>
+  <si>
+    <t>“双手托天理三焦”是哪个养生功法的招式</t>
+  </si>
+  <si>
+    <t>“左右开弓似射雕”是哪个养生功法的招式</t>
+  </si>
+  <si>
+    <t>“白鹤亮翅”是哪个养生功法的招式：</t>
+  </si>
+  <si>
+    <t>“云手”是哪个养生功法的招式：</t>
+  </si>
+  <si>
+    <t>如何理解《黄帝内经》说：“人生于地，悬命于天，天地合气，命之曰人。”</t>
+  </si>
+  <si>
+    <t>《黄帝内经》说：“人与天地相参也，与日月相应也。”以下理解错误的是:</t>
+  </si>
+  <si>
+    <t>[运动要达到体能极限,注重动静结合,因人因时因地制宜,持之以恒，坚持不懈]</t>
+  </si>
+  <si>
+    <t>[精神外散,调息,意守,动形]</t>
+  </si>
+  <si>
+    <t>[意守,调息,动形,精神内敛]</t>
+  </si>
+  <si>
+    <t>[太极拳,南拳,八卦掌,截拳道]</t>
+  </si>
+  <si>
+    <t>[八段锦,太极拳,易筋经,八门遁甲]</t>
+  </si>
+  <si>
+    <t>[华佗,张仲景,孙思邈,扁鹊]</t>
+  </si>
+  <si>
+    <t>[狐,虎,熊,鹿]</t>
+  </si>
+  <si>
+    <t>[传统养生功法之一,佛教经文,武林绝学,一种医术]</t>
+  </si>
+  <si>
+    <t>[能脱胎换骨,能活动肌肉筋骨，使全身经络、气血通畅,增进健康，祛病延年,能伸筋拔骨]</t>
+  </si>
+  <si>
+    <t>[达摩祖师,张仲景,孙思邈,李时珍]</t>
+  </si>
+  <si>
+    <t>[没什么作用,纠正身体不良姿态,促进肌肉、骨骼生长发育,伸筋拔骨]</t>
+  </si>
+  <si>
+    <t>[30分钟,10分钟,20分钟,5分钟]</t>
+  </si>
+  <si>
+    <t>[90分钟,60分钟,30分钟,10分钟]</t>
+  </si>
+  <si>
+    <t>[2小时,1小时,4小时,6小时]</t>
+  </si>
+  <si>
+    <t>[劳累汗多,食欲增进  ,睡眠良好,精力充沛]</t>
+  </si>
+  <si>
+    <t>[睡眠良好,头昏头痛,劳累汗多,食欲减退]</t>
+  </si>
+  <si>
+    <t>[马路旁,公园 ,操场,安静，空气清新的室外坪地]</t>
+  </si>
+  <si>
+    <t>[要喝流动的水,动则不衰,锻炼应持之以恒、坚持不懈 ,生命在于运动]</t>
+  </si>
+  <si>
+    <t>[易筋经,八段锦,太极拳,五禽戏]</t>
+  </si>
+  <si>
+    <t>[八段锦,易筋经,太极拳,五禽戏]</t>
+  </si>
+  <si>
+    <t>[太极拳,易筋经,八段锦,五禽戏]</t>
+  </si>
+  <si>
+    <t>[体现了天人相应观,人是由大地所生的,人的命是上天赐予的,人不是物质世界的组成部分]</t>
+  </si>
+  <si>
+    <t>[人体不是顺应自然的有机体,人的生活起居应顺应天时、地理的变化规律,体现了天人相应观,自然界的运动变化能影响人体]</t>
+  </si>
+  <si>
+    <t>B不属于养生运动的原则，运动养生应适度，不宜过量。运动养生的原则包括：①.掌握运动养生的要领；②.注重动静结合；③.强调适度，不宜过量；④.运动时间一般以早晨为最好；⑤.要因人因时因地制宜；⑥.提倡持之以恒，坚持不懈。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>中国传统运动养生功法应意守，即精神内敛。中国传统运动养生功法均讲求调息、意守、动形，是练功要领。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>中国传统运动养生功法均讲求调息、意守、动形，是练功要领。其中最重要的是意守。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>太极拳是我国民间流传的一种卓有成效的运动保健拳法，其特点是动作柔软、放松，适合于体弱者运动保健。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>八段锦是由八种不同动作组成的中国传统健身术，其练习不受环境场地限制，随时随地可做，术式简单易学易记，运动量适中，老少皆宜，具有强身益寿的作用。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>后汉三国时期，华佗创编“五禽戏”。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>华佗创编“五禽戏”，是模仿虎、鹿、熊、猿、鸟五种动物动作的体操。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>易筋经是活动肌肉、筋骨，使全身经络、气血通畅，从而增进健康祛病延年的一种传统健身法。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>易筋经是活动肌肉、筋骨，使全身经络、气血通畅，从而增进健康祛病延年的一种传统健身法，能达到“伸筋拔骨”的锻炼效果。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>相传易筋经由达摩祖师传授。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>练习易筋经能达到“伸筋拔骨”的锻炼效果，对于青少年来说，练习此功法可以纠正身体的不良姿态，促进肌肉、骨骼的生长发育。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>在饭前锻炼，至少要30分钟后才能用餐。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>饭后至少要休息90分钟以上才能锻炼。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>为了避免锻炼后过度兴奋而影响入睡，应该在临睡前2h左右结束锻炼。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>动静结合、运动量适宜的表现为运动后食欲增进，睡眠良好，情绪轻松，精力充沛。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>运动量过大的表现为运动后食欲减退，头昏头痛，自觉劳累汗多，精神倦怠。</t>
+  </si>
+  <si>
+    <t>运动的理想环境是空气清新的场所。若能在室外林木繁茂、空气新鲜的地方则更为理想。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“流水不腐，户枢不蠹。”这句话一方面说明了“动则不衰”的道理，另一方面也强调了锻炼应持之以恒、坚持不懈，才能收到健身效果，三天打鱼两天晒网是不会达到锻炼目的的。运动养生不仅是身体的锻炼，也是意志力和毅力的锻炼。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“九鬼拔马刀”是易筋经的招式之一。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“青龙探爪”是易筋经的招式之一。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“卧虎扑食”是易筋经的招式之一。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“双手托天理三焦”是八段锦的招式之一。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“左右开弓似射雕”是八段锦的招式之一。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“白鹤亮翅”是太极拳的招式之一。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“云手”是太极拳的招式之一。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“人生于地，悬命于天，天地合气，命之曰人。”说明人，由天地化生，是物质世界的组成部分，体现了中医的天人相应观。（《中医养生学》）</t>
+  </si>
+  <si>
+    <t>“人与天地相参也，与日月相应也。”说明人体，是顺应自然的有机整体，必须使自己的生活起居适应天时、地理变化的客观规律，才能保持身体健康，体现了天人相应观。</t>
   </si>
 </sst>
 </file>
@@ -4038,10 +4134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H604"/>
+  <dimension ref="A1:I604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4056,7 +4152,7 @@
     <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4081,8 +4177,11 @@
       <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4107,8 +4206,11 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4133,8 +4235,11 @@
       <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4159,16 +4264,19 @@
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>1151</v>
       </c>
       <c r="E5" t="s">
-        <v>622</v>
+        <v>1171</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -4179,16 +4287,19 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>1152</v>
       </c>
       <c r="E6" t="s">
-        <v>623</v>
+        <v>1171</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -4199,16 +4310,19 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>1153</v>
       </c>
       <c r="E7" t="s">
-        <v>624</v>
+        <v>1172</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -4219,16 +4333,19 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>1154</v>
       </c>
       <c r="E8" t="s">
-        <v>625</v>
+        <v>1171</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -4239,16 +4356,19 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>1155</v>
       </c>
       <c r="E9" t="s">
-        <v>626</v>
+        <v>1171</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -4259,16 +4379,19 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>1156</v>
       </c>
       <c r="E10" t="s">
-        <v>627</v>
+        <v>1171</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -4279,16 +4402,19 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>1157</v>
       </c>
       <c r="E11" t="s">
-        <v>628</v>
+        <v>1171</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -4299,16 +4425,19 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>1158</v>
       </c>
       <c r="E12" t="s">
-        <v>629</v>
+        <v>1171</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -4319,16 +4448,19 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>1159</v>
       </c>
       <c r="E13" t="s">
-        <v>630</v>
+        <v>1172</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -4339,16 +4471,19 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>1160</v>
       </c>
       <c r="E14" t="s">
-        <v>631</v>
+        <v>1171</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -4359,16 +4494,19 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>1161</v>
       </c>
       <c r="E15" t="s">
-        <v>632</v>
+        <v>1171</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -4379,16 +4517,19 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>1162</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>1171</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -4399,16 +4540,19 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I16" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>1163</v>
       </c>
       <c r="E17" t="s">
-        <v>634</v>
+        <v>1171</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -4419,16 +4563,19 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I17" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>1164</v>
       </c>
       <c r="E18" t="s">
-        <v>635</v>
+        <v>1171</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -4439,16 +4586,19 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>1165</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>1171</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -4459,16 +4609,19 @@
       <c r="H19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I19" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>1166</v>
       </c>
       <c r="E20" t="s">
-        <v>637</v>
+        <v>1171</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -4479,16 +4632,19 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I20" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>1167</v>
       </c>
       <c r="E21" t="s">
-        <v>638</v>
+        <v>1171</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -4499,16 +4655,19 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I21" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>1168</v>
       </c>
       <c r="E22" t="s">
-        <v>639</v>
+        <v>1171</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -4519,16 +4678,19 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I22" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>1169</v>
       </c>
       <c r="E23" t="s">
-        <v>640</v>
+        <v>1172</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -4539,16 +4701,19 @@
       <c r="H23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I23" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>1170</v>
       </c>
       <c r="E24" t="s">
-        <v>641</v>
+        <v>1171</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -4559,16 +4724,19 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -4580,15 +4748,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>643</v>
+        <v>576</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -4600,15 +4768,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>644</v>
+        <v>577</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -4620,15 +4788,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>645</v>
+        <v>578</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -4640,15 +4808,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -4660,15 +4828,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -4680,15 +4848,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -4700,15 +4868,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -4725,10 +4893,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -4745,10 +4913,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -4765,10 +4933,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -4785,10 +4953,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -4805,10 +4973,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -4825,10 +4993,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -4845,10 +5013,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -4865,10 +5033,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -4885,10 +5053,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -4905,10 +5073,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -4925,10 +5093,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>660</v>
+        <v>593</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -4945,10 +5113,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -4965,10 +5133,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -4985,10 +5153,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>663</v>
+        <v>596</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -5005,10 +5173,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>664</v>
+        <v>597</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -5025,10 +5193,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -5045,10 +5213,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>666</v>
+        <v>599</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -5065,10 +5233,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -5085,10 +5253,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>668</v>
+        <v>601</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -5105,10 +5273,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -5125,10 +5293,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -5145,10 +5313,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>671</v>
+        <v>604</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -5165,10 +5333,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -5185,10 +5353,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>673</v>
+        <v>606</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -5205,10 +5373,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -5225,10 +5393,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>675</v>
+        <v>608</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -5245,10 +5413,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -5265,10 +5433,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -5285,10 +5453,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
@@ -5305,10 +5473,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -5325,10 +5493,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>680</v>
+        <v>613</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -5345,10 +5513,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
@@ -5365,10 +5533,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>682</v>
+        <v>615</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -5385,10 +5553,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>683</v>
+        <v>616</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -5405,10 +5573,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>684</v>
+        <v>617</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
@@ -5425,10 +5593,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>685</v>
+        <v>618</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
@@ -5445,10 +5613,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>686</v>
+        <v>619</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
@@ -5465,10 +5633,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>687</v>
+        <v>620</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
@@ -5485,10 +5653,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>688</v>
+        <v>621</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
@@ -5505,10 +5673,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
@@ -5525,10 +5693,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>690</v>
+        <v>623</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
@@ -5545,10 +5713,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>691</v>
+        <v>624</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
@@ -5565,10 +5733,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>692</v>
+        <v>625</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
@@ -5585,10 +5753,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>693</v>
+        <v>626</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
@@ -5605,10 +5773,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>694</v>
+        <v>627</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
@@ -5625,10 +5793,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>695</v>
+        <v>628</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
@@ -5645,10 +5813,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>696</v>
+        <v>629</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -5665,10 +5833,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E80" t="s">
-        <v>697</v>
+        <v>630</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
@@ -5685,10 +5853,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>698</v>
+        <v>631</v>
       </c>
       <c r="F81" s="2">
         <v>0</v>
@@ -5705,10 +5873,10 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
-        <v>699</v>
+        <v>632</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
@@ -5725,10 +5893,10 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>700</v>
+        <v>633</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
@@ -5745,10 +5913,10 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>701</v>
+        <v>634</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
@@ -5765,10 +5933,10 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>702</v>
+        <v>635</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
@@ -5785,10 +5953,10 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>703</v>
+        <v>636</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -5805,10 +5973,10 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E87" t="s">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="F87" s="2">
         <v>0</v>
@@ -5825,10 +5993,10 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
-        <v>705</v>
+        <v>638</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
@@ -5845,10 +6013,10 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E89" t="s">
-        <v>706</v>
+        <v>639</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -5865,10 +6033,10 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E90" t="s">
-        <v>707</v>
+        <v>640</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
@@ -5885,10 +6053,10 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
@@ -5905,10 +6073,10 @@
         <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
@@ -5925,10 +6093,10 @@
         <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="F93" s="2">
         <v>0</v>
@@ -5945,10 +6113,10 @@
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
@@ -5965,10 +6133,10 @@
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
       <c r="F95" s="2">
         <v>0</v>
@@ -5985,10 +6153,10 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
       <c r="F96" s="2">
         <v>0</v>
@@ -6005,10 +6173,10 @@
         <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="F97" s="2">
         <v>0</v>
@@ -6025,10 +6193,10 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="F98" s="2">
         <v>0</v>
@@ -6045,10 +6213,10 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E99" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="F99" s="2">
         <v>0</v>
@@ -6065,10 +6233,10 @@
         <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
@@ -6085,10 +6253,10 @@
         <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -6105,10 +6273,10 @@
         <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E102" t="s">
-        <v>719</v>
+        <v>652</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
@@ -6125,10 +6293,10 @@
         <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -6145,10 +6313,10 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -6165,10 +6333,10 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
       <c r="F105" s="2">
         <v>0</v>
@@ -6185,10 +6353,10 @@
         <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E106" t="s">
-        <v>723</v>
+        <v>656</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
@@ -6205,10 +6373,10 @@
         <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E107" t="s">
-        <v>724</v>
+        <v>657</v>
       </c>
       <c r="F107" s="2">
         <v>0</v>
@@ -6225,10 +6393,10 @@
         <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
-        <v>725</v>
+        <v>658</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
@@ -6245,10 +6413,10 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E109" t="s">
-        <v>726</v>
+        <v>659</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
@@ -6265,10 +6433,10 @@
         <v>106</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E110" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
@@ -6285,10 +6453,10 @@
         <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E111" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
@@ -6305,10 +6473,10 @@
         <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
       <c r="F112" s="2">
         <v>0</v>
@@ -6325,10 +6493,10 @@
         <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E113" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
@@ -6345,10 +6513,10 @@
         <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E114" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
       <c r="F114" s="2">
         <v>0</v>
@@ -6365,10 +6533,10 @@
         <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E115" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
       <c r="F115" s="2">
         <v>0</v>
@@ -6385,10 +6553,10 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E116" t="s">
-        <v>733</v>
+        <v>666</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
@@ -6405,10 +6573,10 @@
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E117" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
@@ -6425,10 +6593,10 @@
         <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -6445,10 +6613,10 @@
         <v>115</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E119" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
       <c r="F119" s="2">
         <v>0</v>
@@ -6465,10 +6633,10 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E120" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="F120" s="2">
         <v>0</v>
@@ -6485,10 +6653,10 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E121" t="s">
-        <v>738</v>
+        <v>671</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
@@ -6505,10 +6673,10 @@
         <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E122" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
@@ -6525,10 +6693,10 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E123" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -6545,10 +6713,10 @@
         <v>120</v>
       </c>
       <c r="C124" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E124" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -6565,10 +6733,10 @@
         <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E125" t="s">
-        <v>742</v>
+        <v>675</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -6585,10 +6753,10 @@
         <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E126" t="s">
-        <v>743</v>
+        <v>676</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -6605,10 +6773,10 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E127" t="s">
-        <v>744</v>
+        <v>677</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
@@ -6625,10 +6793,10 @@
         <v>124</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E128" t="s">
-        <v>745</v>
+        <v>678</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
@@ -6645,10 +6813,10 @@
         <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
@@ -6665,10 +6833,10 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E130" t="s">
-        <v>747</v>
+        <v>680</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -6685,10 +6853,10 @@
         <v>127</v>
       </c>
       <c r="C131" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E131" t="s">
-        <v>748</v>
+        <v>681</v>
       </c>
       <c r="F131" s="2">
         <v>0</v>
@@ -6705,10 +6873,10 @@
         <v>128</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E132" t="s">
-        <v>749</v>
+        <v>682</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
@@ -6725,10 +6893,10 @@
         <v>129</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E133" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
       <c r="F133" s="2">
         <v>0</v>
@@ -6745,10 +6913,10 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
       <c r="F134" s="2">
         <v>0</v>
@@ -6765,10 +6933,10 @@
         <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E135" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="F135" s="2">
         <v>0</v>
@@ -6785,10 +6953,10 @@
         <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E136" t="s">
-        <v>753</v>
+        <v>686</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -6805,10 +6973,10 @@
         <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E137" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
       <c r="F137" s="2">
         <v>0</v>
@@ -6825,10 +6993,10 @@
         <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
       <c r="F138" s="2">
         <v>0</v>
@@ -6845,10 +7013,10 @@
         <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E139" t="s">
-        <v>756</v>
+        <v>689</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
@@ -6865,10 +7033,10 @@
         <v>136</v>
       </c>
       <c r="C140" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E140" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>
@@ -6885,10 +7053,10 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
@@ -6905,10 +7073,10 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E142" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
@@ -6925,10 +7093,10 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E143" t="s">
-        <v>760</v>
+        <v>693</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
@@ -6945,10 +7113,10 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E144" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
@@ -6965,10 +7133,10 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E145" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -6985,10 +7153,10 @@
         <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E146" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
@@ -7005,10 +7173,10 @@
         <v>143</v>
       </c>
       <c r="C147" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E147" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
@@ -7025,10 +7193,10 @@
         <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E148" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
@@ -7045,10 +7213,10 @@
         <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E149" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
       <c r="F149" s="2">
         <v>0</v>
@@ -7065,10 +7233,10 @@
         <v>146</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E150" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -7085,10 +7253,10 @@
         <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E151" t="s">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
@@ -7105,10 +7273,10 @@
         <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E152" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -7125,10 +7293,10 @@
         <v>149</v>
       </c>
       <c r="C153" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E153" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
@@ -7145,10 +7313,10 @@
         <v>150</v>
       </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E154" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
@@ -7165,10 +7333,10 @@
         <v>151</v>
       </c>
       <c r="C155" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E155" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
@@ -7185,10 +7353,10 @@
         <v>152</v>
       </c>
       <c r="C156" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E156" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
       <c r="F156" s="2">
         <v>0</v>
@@ -7205,10 +7373,10 @@
         <v>153</v>
       </c>
       <c r="C157" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E157" t="s">
-        <v>774</v>
+        <v>707</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
@@ -7225,10 +7393,10 @@
         <v>154</v>
       </c>
       <c r="C158" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E158" t="s">
-        <v>775</v>
+        <v>708</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -7245,10 +7413,10 @@
         <v>155</v>
       </c>
       <c r="C159" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E159" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="F159" s="2">
         <v>0</v>
@@ -7265,10 +7433,10 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E160" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
@@ -7285,10 +7453,10 @@
         <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E161" t="s">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="F161" s="2">
         <v>0</v>
@@ -7305,10 +7473,10 @@
         <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E162" t="s">
-        <v>779</v>
+        <v>712</v>
       </c>
       <c r="F162" s="2">
         <v>0</v>
@@ -7325,10 +7493,10 @@
         <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E163" t="s">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
@@ -7345,10 +7513,10 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E164" t="s">
-        <v>781</v>
+        <v>714</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
@@ -7365,10 +7533,10 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E165" t="s">
-        <v>782</v>
+        <v>715</v>
       </c>
       <c r="F165" s="2">
         <v>0</v>
@@ -7385,10 +7553,10 @@
         <v>162</v>
       </c>
       <c r="C166" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="E166" t="s">
-        <v>783</v>
+        <v>716</v>
       </c>
       <c r="F166" s="2">
         <v>0</v>
@@ -7405,10 +7573,10 @@
         <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E167" t="s">
-        <v>784</v>
+        <v>717</v>
       </c>
       <c r="F167" s="2">
         <v>0</v>
@@ -7425,10 +7593,10 @@
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E168" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="F168" s="2">
         <v>0</v>
@@ -7445,10 +7613,10 @@
         <v>165</v>
       </c>
       <c r="C169" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E169" t="s">
-        <v>786</v>
+        <v>719</v>
       </c>
       <c r="F169" s="2">
         <v>0</v>
@@ -7465,10 +7633,10 @@
         <v>166</v>
       </c>
       <c r="C170" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E170" t="s">
-        <v>787</v>
+        <v>720</v>
       </c>
       <c r="F170" s="2">
         <v>0</v>
@@ -7485,10 +7653,10 @@
         <v>167</v>
       </c>
       <c r="C171" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E171" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
       <c r="F171" s="2">
         <v>0</v>
@@ -7505,10 +7673,10 @@
         <v>168</v>
       </c>
       <c r="C172" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E172" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
       <c r="F172" s="2">
         <v>0</v>
@@ -7525,10 +7693,10 @@
         <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E173" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
@@ -7545,10 +7713,10 @@
         <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E174" t="s">
-        <v>791</v>
+        <v>724</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
@@ -7565,10 +7733,10 @@
         <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E175" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
@@ -7585,10 +7753,10 @@
         <v>172</v>
       </c>
       <c r="C176" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E176" t="s">
-        <v>793</v>
+        <v>726</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
@@ -7605,10 +7773,10 @@
         <v>173</v>
       </c>
       <c r="C177" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E177" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
       <c r="F177" s="2">
         <v>0</v>
@@ -7625,10 +7793,10 @@
         <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E178" t="s">
-        <v>795</v>
+        <v>728</v>
       </c>
       <c r="F178" s="2">
         <v>0</v>
@@ -7645,10 +7813,10 @@
         <v>175</v>
       </c>
       <c r="C179" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E179" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
@@ -7665,10 +7833,10 @@
         <v>176</v>
       </c>
       <c r="C180" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E180" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
       <c r="F180" s="2">
         <v>0</v>
@@ -7685,10 +7853,10 @@
         <v>177</v>
       </c>
       <c r="C181" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E181" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
@@ -7705,10 +7873,10 @@
         <v>178</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E182" t="s">
-        <v>799</v>
+        <v>732</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
@@ -7725,10 +7893,10 @@
         <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E183" t="s">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="F183" s="2">
         <v>0</v>
@@ -7745,10 +7913,10 @@
         <v>180</v>
       </c>
       <c r="C184" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E184" t="s">
-        <v>801</v>
+        <v>734</v>
       </c>
       <c r="F184" s="2">
         <v>0</v>
@@ -7765,10 +7933,10 @@
         <v>181</v>
       </c>
       <c r="C185" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E185" t="s">
-        <v>802</v>
+        <v>735</v>
       </c>
       <c r="F185" s="2">
         <v>0</v>
@@ -7785,10 +7953,10 @@
         <v>182</v>
       </c>
       <c r="C186" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E186" t="s">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="F186" s="2">
         <v>0</v>
@@ -7805,10 +7973,10 @@
         <v>183</v>
       </c>
       <c r="C187" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E187" t="s">
-        <v>804</v>
+        <v>737</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
@@ -7825,10 +7993,10 @@
         <v>184</v>
       </c>
       <c r="C188" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E188" t="s">
-        <v>805</v>
+        <v>738</v>
       </c>
       <c r="F188" s="2">
         <v>0</v>
@@ -7845,10 +8013,10 @@
         <v>185</v>
       </c>
       <c r="C189" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E189" t="s">
-        <v>806</v>
+        <v>739</v>
       </c>
       <c r="F189" s="2">
         <v>0</v>
@@ -7865,10 +8033,10 @@
         <v>186</v>
       </c>
       <c r="C190" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E190" t="s">
-        <v>807</v>
+        <v>740</v>
       </c>
       <c r="F190" s="2">
         <v>0</v>
@@ -7885,10 +8053,10 @@
         <v>187</v>
       </c>
       <c r="C191" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E191" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="F191" s="2">
         <v>0</v>
@@ -7905,10 +8073,10 @@
         <v>188</v>
       </c>
       <c r="C192" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E192" t="s">
-        <v>809</v>
+        <v>742</v>
       </c>
       <c r="F192" s="2">
         <v>0</v>
@@ -7920,15 +8088,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B193">
         <v>189</v>
       </c>
       <c r="C193" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E193" t="s">
-        <v>810</v>
+        <v>743</v>
       </c>
       <c r="F193" s="2">
         <v>0</v>
@@ -7940,15 +8108,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B194">
         <v>190</v>
       </c>
       <c r="C194" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E194" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
       <c r="F194" s="2">
         <v>0</v>
@@ -7960,15 +8128,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B195">
         <v>191</v>
       </c>
       <c r="C195" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E195" t="s">
-        <v>812</v>
+        <v>745</v>
       </c>
       <c r="F195" s="2">
         <v>0</v>
@@ -7980,15 +8148,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B196">
         <v>192</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E196" t="s">
-        <v>813</v>
+        <v>746</v>
       </c>
       <c r="F196" s="2">
         <v>0</v>
@@ -8000,15 +8168,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B197">
         <v>193</v>
       </c>
       <c r="C197" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E197" t="s">
-        <v>814</v>
+        <v>747</v>
       </c>
       <c r="F197" s="2">
         <v>0</v>
@@ -8020,15 +8188,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B198">
         <v>194</v>
       </c>
       <c r="C198" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="E198" t="s">
-        <v>815</v>
+        <v>748</v>
       </c>
       <c r="F198" s="2">
         <v>0</v>
@@ -8040,15 +8208,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B199">
         <v>195</v>
       </c>
       <c r="C199" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E199" t="s">
-        <v>816</v>
+        <v>749</v>
       </c>
       <c r="F199" s="2">
         <v>0</v>
@@ -8060,15 +8228,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B200">
         <v>196</v>
       </c>
       <c r="C200" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E200" t="s">
-        <v>817</v>
+        <v>750</v>
       </c>
       <c r="F200" s="2">
         <v>0</v>
@@ -8080,15 +8248,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B201">
         <v>197</v>
       </c>
       <c r="C201" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E201" t="s">
-        <v>818</v>
+        <v>751</v>
       </c>
       <c r="F201" s="2">
         <v>0</v>
@@ -8100,15 +8268,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B202">
         <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E202" t="s">
-        <v>819</v>
+        <v>752</v>
       </c>
       <c r="F202" s="2">
         <v>0</v>
@@ -8120,15 +8288,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B203">
         <v>199</v>
       </c>
       <c r="C203" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E203" t="s">
-        <v>820</v>
+        <v>753</v>
       </c>
       <c r="F203" s="2">
         <v>0</v>
@@ -8140,15 +8308,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B204">
         <v>200</v>
       </c>
       <c r="C204" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E204" t="s">
-        <v>821</v>
+        <v>754</v>
       </c>
       <c r="F204" s="2">
         <v>0</v>
@@ -8160,15 +8328,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B205">
         <v>201</v>
       </c>
       <c r="C205" t="s">
-        <v>222</v>
+        <v>1173</v>
       </c>
       <c r="E205" t="s">
-        <v>822</v>
+        <v>1200</v>
       </c>
       <c r="F205" s="2">
         <v>0</v>
@@ -8179,16 +8347,19 @@
       <c r="H205" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I205" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B206">
         <v>202</v>
       </c>
       <c r="C206" t="s">
-        <v>223</v>
+        <v>1174</v>
       </c>
       <c r="E206" t="s">
-        <v>823</v>
+        <v>1201</v>
       </c>
       <c r="F206" s="2">
         <v>0</v>
@@ -8199,16 +8370,19 @@
       <c r="H206" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I206" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B207">
         <v>203</v>
       </c>
       <c r="C207" t="s">
-        <v>224</v>
+        <v>1175</v>
       </c>
       <c r="E207" t="s">
-        <v>824</v>
+        <v>1202</v>
       </c>
       <c r="F207" s="2">
         <v>0</v>
@@ -8219,16 +8393,19 @@
       <c r="H207" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I207" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B208">
         <v>204</v>
       </c>
       <c r="C208" t="s">
-        <v>225</v>
+        <v>1176</v>
       </c>
       <c r="E208" t="s">
-        <v>825</v>
+        <v>1203</v>
       </c>
       <c r="F208" s="2">
         <v>0</v>
@@ -8239,16 +8416,19 @@
       <c r="H208" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I208" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B209">
         <v>205</v>
       </c>
       <c r="C209" t="s">
-        <v>226</v>
+        <v>1177</v>
       </c>
       <c r="E209" t="s">
-        <v>826</v>
+        <v>1204</v>
       </c>
       <c r="F209" s="2">
         <v>0</v>
@@ -8259,16 +8439,19 @@
       <c r="H209" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I209" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B210">
         <v>206</v>
       </c>
       <c r="C210" t="s">
-        <v>227</v>
+        <v>1178</v>
       </c>
       <c r="E210" t="s">
-        <v>827</v>
+        <v>1205</v>
       </c>
       <c r="F210" s="2">
         <v>0</v>
@@ -8279,16 +8462,19 @@
       <c r="H210" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I210" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B211">
         <v>207</v>
       </c>
       <c r="C211" t="s">
-        <v>228</v>
+        <v>1179</v>
       </c>
       <c r="E211" t="s">
-        <v>828</v>
+        <v>1206</v>
       </c>
       <c r="F211" s="2">
         <v>0</v>
@@ -8299,16 +8485,19 @@
       <c r="H211" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I211" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B212">
         <v>208</v>
       </c>
       <c r="C212" t="s">
-        <v>229</v>
+        <v>1180</v>
       </c>
       <c r="E212" t="s">
-        <v>829</v>
+        <v>1207</v>
       </c>
       <c r="F212" s="2">
         <v>0</v>
@@ -8319,16 +8508,19 @@
       <c r="H212" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I212" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B213">
         <v>209</v>
       </c>
       <c r="C213" t="s">
-        <v>230</v>
+        <v>1181</v>
       </c>
       <c r="E213" t="s">
-        <v>830</v>
+        <v>1208</v>
       </c>
       <c r="F213" s="2">
         <v>0</v>
@@ -8339,16 +8531,19 @@
       <c r="H213" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I213" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B214">
         <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>231</v>
+        <v>1182</v>
       </c>
       <c r="E214" t="s">
-        <v>831</v>
+        <v>1209</v>
       </c>
       <c r="F214" s="2">
         <v>0</v>
@@ -8359,16 +8554,19 @@
       <c r="H214" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I214" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B215">
         <v>211</v>
       </c>
       <c r="C215" t="s">
-        <v>232</v>
+        <v>1183</v>
       </c>
       <c r="E215" t="s">
-        <v>832</v>
+        <v>1210</v>
       </c>
       <c r="F215" s="2">
         <v>0</v>
@@ -8379,16 +8577,19 @@
       <c r="H215" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I215" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B216">
         <v>212</v>
       </c>
       <c r="C216" t="s">
-        <v>233</v>
+        <v>1184</v>
       </c>
       <c r="E216" t="s">
-        <v>833</v>
+        <v>1211</v>
       </c>
       <c r="F216" s="2">
         <v>0</v>
@@ -8399,16 +8600,19 @@
       <c r="H216" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I216" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B217">
         <v>213</v>
       </c>
       <c r="C217" t="s">
-        <v>234</v>
+        <v>1185</v>
       </c>
       <c r="E217" t="s">
-        <v>834</v>
+        <v>1212</v>
       </c>
       <c r="F217" s="2">
         <v>0</v>
@@ -8419,16 +8623,19 @@
       <c r="H217" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I217" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B218">
         <v>214</v>
       </c>
       <c r="C218" t="s">
-        <v>235</v>
+        <v>1186</v>
       </c>
       <c r="E218" t="s">
-        <v>835</v>
+        <v>1213</v>
       </c>
       <c r="F218" s="2">
         <v>0</v>
@@ -8439,16 +8646,19 @@
       <c r="H218" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I218" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B219">
         <v>215</v>
       </c>
       <c r="C219" t="s">
-        <v>236</v>
+        <v>1187</v>
       </c>
       <c r="E219" t="s">
-        <v>836</v>
+        <v>1214</v>
       </c>
       <c r="F219" s="2">
         <v>0</v>
@@ -8459,16 +8669,19 @@
       <c r="H219" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I219" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B220">
         <v>216</v>
       </c>
       <c r="C220" t="s">
-        <v>237</v>
+        <v>1188</v>
       </c>
       <c r="E220" t="s">
-        <v>837</v>
+        <v>1215</v>
       </c>
       <c r="F220" s="2">
         <v>0</v>
@@ -8479,16 +8692,19 @@
       <c r="H220" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I220" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B221">
         <v>217</v>
       </c>
       <c r="C221" t="s">
-        <v>238</v>
+        <v>1189</v>
       </c>
       <c r="E221" t="s">
-        <v>838</v>
+        <v>1216</v>
       </c>
       <c r="F221" s="2">
         <v>0</v>
@@ -8499,16 +8715,19 @@
       <c r="H221" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I221" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B222">
         <v>218</v>
       </c>
       <c r="C222" t="s">
-        <v>239</v>
+        <v>1190</v>
       </c>
       <c r="E222" t="s">
-        <v>839</v>
+        <v>1217</v>
       </c>
       <c r="F222" s="2">
         <v>0</v>
@@ -8519,16 +8738,19 @@
       <c r="H222" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I222" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B223">
         <v>219</v>
       </c>
       <c r="C223" t="s">
-        <v>240</v>
+        <v>1191</v>
       </c>
       <c r="E223" t="s">
-        <v>840</v>
+        <v>1218</v>
       </c>
       <c r="F223" s="2">
         <v>0</v>
@@ -8539,16 +8761,19 @@
       <c r="H223" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I223" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B224">
         <v>220</v>
       </c>
       <c r="C224" t="s">
-        <v>241</v>
+        <v>1192</v>
       </c>
       <c r="E224" t="s">
-        <v>841</v>
+        <v>1218</v>
       </c>
       <c r="F224" s="2">
         <v>0</v>
@@ -8559,16 +8784,19 @@
       <c r="H224" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I224" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B225">
         <v>221</v>
       </c>
       <c r="C225" t="s">
-        <v>242</v>
+        <v>1193</v>
       </c>
       <c r="E225" t="s">
-        <v>842</v>
+        <v>1218</v>
       </c>
       <c r="F225" s="2">
         <v>0</v>
@@ -8579,16 +8807,19 @@
       <c r="H225" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I225" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B226">
         <v>222</v>
       </c>
       <c r="C226" t="s">
-        <v>243</v>
+        <v>1194</v>
       </c>
       <c r="E226" t="s">
-        <v>843</v>
+        <v>1219</v>
       </c>
       <c r="F226" s="2">
         <v>0</v>
@@ -8599,16 +8830,19 @@
       <c r="H226" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I226" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B227">
         <v>223</v>
       </c>
       <c r="C227" t="s">
-        <v>244</v>
+        <v>1195</v>
       </c>
       <c r="E227" t="s">
-        <v>844</v>
+        <v>1219</v>
       </c>
       <c r="F227" s="2">
         <v>0</v>
@@ -8619,16 +8853,19 @@
       <c r="H227" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I227" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B228">
         <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>245</v>
+        <v>1196</v>
       </c>
       <c r="E228" t="s">
-        <v>845</v>
+        <v>1220</v>
       </c>
       <c r="F228" s="2">
         <v>0</v>
@@ -8639,16 +8876,19 @@
       <c r="H228" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I228" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B229">
         <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>246</v>
+        <v>1197</v>
       </c>
       <c r="E229" t="s">
-        <v>846</v>
+        <v>1220</v>
       </c>
       <c r="F229" s="2">
         <v>0</v>
@@ -8659,16 +8899,19 @@
       <c r="H229" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I229" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B230">
         <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>247</v>
+        <v>1198</v>
       </c>
       <c r="E230" t="s">
-        <v>847</v>
+        <v>1221</v>
       </c>
       <c r="F230" s="2">
         <v>0</v>
@@ -8679,16 +8922,19 @@
       <c r="H230" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I230" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B231">
         <v>227</v>
       </c>
       <c r="C231" t="s">
-        <v>248</v>
+        <v>1199</v>
       </c>
       <c r="E231" t="s">
-        <v>848</v>
+        <v>1222</v>
       </c>
       <c r="F231" s="2">
         <v>0</v>
@@ -8699,16 +8945,19 @@
       <c r="H231" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I231" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B232">
         <v>228</v>
       </c>
       <c r="C232" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="E232" t="s">
-        <v>849</v>
+        <v>755</v>
       </c>
       <c r="F232" s="2">
         <v>0</v>
@@ -8720,15 +8969,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B233">
         <v>229</v>
       </c>
       <c r="C233" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="E233" t="s">
-        <v>850</v>
+        <v>756</v>
       </c>
       <c r="F233" s="2">
         <v>0</v>
@@ -8740,15 +8989,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B234">
         <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="E234" t="s">
-        <v>851</v>
+        <v>757</v>
       </c>
       <c r="F234" s="2">
         <v>0</v>
@@ -8760,15 +9009,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B235">
         <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="E235" t="s">
-        <v>852</v>
+        <v>758</v>
       </c>
       <c r="F235" s="2">
         <v>0</v>
@@ -8780,15 +9029,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B236">
         <v>232</v>
       </c>
       <c r="C236" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E236" t="s">
-        <v>853</v>
+        <v>759</v>
       </c>
       <c r="F236" s="2">
         <v>0</v>
@@ -8800,15 +9049,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B237">
         <v>233</v>
       </c>
       <c r="C237" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="E237" t="s">
-        <v>854</v>
+        <v>760</v>
       </c>
       <c r="F237" s="2">
         <v>0</v>
@@ -8820,15 +9069,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B238">
         <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="E238" t="s">
-        <v>855</v>
+        <v>761</v>
       </c>
       <c r="F238" s="2">
         <v>0</v>
@@ -8840,15 +9089,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B239">
         <v>235</v>
       </c>
       <c r="C239" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="E239" t="s">
-        <v>856</v>
+        <v>762</v>
       </c>
       <c r="F239" s="2">
         <v>0</v>
@@ -8860,15 +9109,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B240">
         <v>236</v>
       </c>
       <c r="C240" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="E240" t="s">
-        <v>857</v>
+        <v>763</v>
       </c>
       <c r="F240" s="2">
         <v>0</v>
@@ -8885,10 +9134,10 @@
         <v>237</v>
       </c>
       <c r="C241" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="E241" t="s">
-        <v>858</v>
+        <v>764</v>
       </c>
       <c r="F241" s="2">
         <v>0</v>
@@ -8905,10 +9154,10 @@
         <v>238</v>
       </c>
       <c r="C242" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="E242" t="s">
-        <v>859</v>
+        <v>765</v>
       </c>
       <c r="F242" s="2">
         <v>0</v>
@@ -8925,10 +9174,10 @@
         <v>239</v>
       </c>
       <c r="C243" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="E243" t="s">
-        <v>860</v>
+        <v>766</v>
       </c>
       <c r="F243" s="2">
         <v>0</v>
@@ -8945,10 +9194,10 @@
         <v>240</v>
       </c>
       <c r="C244" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="E244" t="s">
-        <v>861</v>
+        <v>767</v>
       </c>
       <c r="F244" s="2">
         <v>0</v>
@@ -8965,10 +9214,10 @@
         <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="E245" t="s">
-        <v>862</v>
+        <v>768</v>
       </c>
       <c r="F245" s="2">
         <v>0</v>
@@ -8985,10 +9234,10 @@
         <v>242</v>
       </c>
       <c r="C246" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="E246" t="s">
-        <v>863</v>
+        <v>769</v>
       </c>
       <c r="F246" s="2">
         <v>0</v>
@@ -9005,10 +9254,10 @@
         <v>243</v>
       </c>
       <c r="C247" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="E247" t="s">
-        <v>864</v>
+        <v>770</v>
       </c>
       <c r="F247" s="2">
         <v>0</v>
@@ -9025,10 +9274,10 @@
         <v>244</v>
       </c>
       <c r="C248" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="E248" t="s">
-        <v>865</v>
+        <v>771</v>
       </c>
       <c r="F248" s="2">
         <v>0</v>
@@ -9045,10 +9294,10 @@
         <v>245</v>
       </c>
       <c r="C249" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="E249" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
       <c r="F249" s="2">
         <v>0</v>
@@ -9065,10 +9314,10 @@
         <v>246</v>
       </c>
       <c r="C250" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="E250" t="s">
-        <v>867</v>
+        <v>773</v>
       </c>
       <c r="F250" s="2">
         <v>0</v>
@@ -9085,10 +9334,10 @@
         <v>247</v>
       </c>
       <c r="C251" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="E251" t="s">
-        <v>868</v>
+        <v>774</v>
       </c>
       <c r="F251" s="2">
         <v>0</v>
@@ -9105,10 +9354,10 @@
         <v>248</v>
       </c>
       <c r="C252" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="E252" t="s">
-        <v>869</v>
+        <v>775</v>
       </c>
       <c r="F252" s="2">
         <v>0</v>
@@ -9125,10 +9374,10 @@
         <v>249</v>
       </c>
       <c r="C253" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="E253" t="s">
-        <v>870</v>
+        <v>776</v>
       </c>
       <c r="F253" s="2">
         <v>0</v>
@@ -9145,10 +9394,10 @@
         <v>250</v>
       </c>
       <c r="C254" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="E254" t="s">
-        <v>871</v>
+        <v>777</v>
       </c>
       <c r="F254" s="2">
         <v>0</v>
@@ -9165,10 +9414,10 @@
         <v>251</v>
       </c>
       <c r="C255" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="E255" t="s">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="F255" s="2">
         <v>0</v>
@@ -9185,10 +9434,10 @@
         <v>252</v>
       </c>
       <c r="C256" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="E256" t="s">
-        <v>873</v>
+        <v>779</v>
       </c>
       <c r="F256" s="2">
         <v>0</v>
@@ -9205,10 +9454,10 @@
         <v>253</v>
       </c>
       <c r="C257" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="E257" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="F257" s="2">
         <v>0</v>
@@ -9225,10 +9474,10 @@
         <v>254</v>
       </c>
       <c r="C258" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="E258" t="s">
-        <v>875</v>
+        <v>781</v>
       </c>
       <c r="F258" s="2">
         <v>0</v>
@@ -9245,10 +9494,10 @@
         <v>255</v>
       </c>
       <c r="C259" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="E259" t="s">
-        <v>876</v>
+        <v>782</v>
       </c>
       <c r="F259" s="2">
         <v>0</v>
@@ -9265,10 +9514,10 @@
         <v>256</v>
       </c>
       <c r="C260" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="E260" t="s">
-        <v>877</v>
+        <v>783</v>
       </c>
       <c r="F260" s="2">
         <v>0</v>
@@ -9285,10 +9534,10 @@
         <v>257</v>
       </c>
       <c r="C261" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="E261" t="s">
-        <v>878</v>
+        <v>784</v>
       </c>
       <c r="F261" s="2">
         <v>0</v>
@@ -9305,10 +9554,10 @@
         <v>258</v>
       </c>
       <c r="C262" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="E262" t="s">
-        <v>879</v>
+        <v>785</v>
       </c>
       <c r="F262" s="2">
         <v>0</v>
@@ -9325,10 +9574,10 @@
         <v>259</v>
       </c>
       <c r="C263" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="E263" t="s">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="F263" s="2">
         <v>0</v>
@@ -9345,10 +9594,10 @@
         <v>260</v>
       </c>
       <c r="C264" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="E264" t="s">
-        <v>881</v>
+        <v>787</v>
       </c>
       <c r="F264" s="2">
         <v>0</v>
@@ -9365,10 +9614,10 @@
         <v>261</v>
       </c>
       <c r="C265" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="E265" t="s">
-        <v>882</v>
+        <v>788</v>
       </c>
       <c r="F265" s="2">
         <v>0</v>
@@ -9385,10 +9634,10 @@
         <v>262</v>
       </c>
       <c r="C266" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="E266" t="s">
-        <v>883</v>
+        <v>789</v>
       </c>
       <c r="F266" s="2">
         <v>0</v>
@@ -9405,10 +9654,10 @@
         <v>263</v>
       </c>
       <c r="C267" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="E267" t="s">
-        <v>884</v>
+        <v>790</v>
       </c>
       <c r="F267" s="2">
         <v>0</v>
@@ -9425,10 +9674,10 @@
         <v>264</v>
       </c>
       <c r="C268" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="E268" t="s">
-        <v>885</v>
+        <v>791</v>
       </c>
       <c r="F268" s="2">
         <v>0</v>
@@ -9445,10 +9694,10 @@
         <v>265</v>
       </c>
       <c r="C269" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="E269" t="s">
-        <v>886</v>
+        <v>792</v>
       </c>
       <c r="F269" s="2">
         <v>0</v>
@@ -9465,10 +9714,10 @@
         <v>266</v>
       </c>
       <c r="C270" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="E270" t="s">
-        <v>887</v>
+        <v>793</v>
       </c>
       <c r="F270" s="2">
         <v>0</v>
@@ -9485,10 +9734,10 @@
         <v>267</v>
       </c>
       <c r="C271" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="E271" t="s">
-        <v>888</v>
+        <v>794</v>
       </c>
       <c r="F271" s="2">
         <v>0</v>
@@ -9505,10 +9754,10 @@
         <v>268</v>
       </c>
       <c r="C272" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="E272" t="s">
-        <v>889</v>
+        <v>795</v>
       </c>
       <c r="F272" s="2">
         <v>0</v>
@@ -9525,10 +9774,10 @@
         <v>269</v>
       </c>
       <c r="C273" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="E273" t="s">
-        <v>890</v>
+        <v>796</v>
       </c>
       <c r="F273" s="2">
         <v>0</v>
@@ -9545,10 +9794,10 @@
         <v>270</v>
       </c>
       <c r="C274" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="E274" t="s">
-        <v>891</v>
+        <v>797</v>
       </c>
       <c r="F274" s="2">
         <v>0</v>
@@ -9565,10 +9814,10 @@
         <v>271</v>
       </c>
       <c r="C275" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="E275" t="s">
-        <v>892</v>
+        <v>798</v>
       </c>
       <c r="F275" s="2">
         <v>0</v>
@@ -9585,10 +9834,10 @@
         <v>272</v>
       </c>
       <c r="C276" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="E276" t="s">
-        <v>893</v>
+        <v>799</v>
       </c>
       <c r="F276" s="2">
         <v>0</v>
@@ -9605,10 +9854,10 @@
         <v>273</v>
       </c>
       <c r="C277" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="E277" t="s">
-        <v>894</v>
+        <v>800</v>
       </c>
       <c r="F277" s="2">
         <v>0</v>
@@ -9625,10 +9874,10 @@
         <v>274</v>
       </c>
       <c r="C278" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="E278" t="s">
-        <v>895</v>
+        <v>801</v>
       </c>
       <c r="F278" s="2">
         <v>0</v>
@@ -9645,10 +9894,10 @@
         <v>275</v>
       </c>
       <c r="C279" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="E279" t="s">
-        <v>896</v>
+        <v>802</v>
       </c>
       <c r="F279" s="2">
         <v>0</v>
@@ -9665,10 +9914,10 @@
         <v>276</v>
       </c>
       <c r="C280" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="E280" t="s">
-        <v>897</v>
+        <v>803</v>
       </c>
       <c r="F280" s="2">
         <v>0</v>
@@ -9685,10 +9934,10 @@
         <v>277</v>
       </c>
       <c r="C281" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="E281" t="s">
-        <v>898</v>
+        <v>804</v>
       </c>
       <c r="F281" s="2">
         <v>0</v>
@@ -9705,10 +9954,10 @@
         <v>278</v>
       </c>
       <c r="C282" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="E282" t="s">
-        <v>899</v>
+        <v>805</v>
       </c>
       <c r="F282" s="2">
         <v>0</v>
@@ -9725,10 +9974,10 @@
         <v>279</v>
       </c>
       <c r="C283" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="E283" t="s">
-        <v>900</v>
+        <v>806</v>
       </c>
       <c r="F283" s="2">
         <v>0</v>
@@ -9745,10 +9994,10 @@
         <v>280</v>
       </c>
       <c r="C284" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="E284" t="s">
-        <v>901</v>
+        <v>807</v>
       </c>
       <c r="F284" s="2">
         <v>0</v>
@@ -9765,10 +10014,10 @@
         <v>281</v>
       </c>
       <c r="C285" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="E285" t="s">
-        <v>902</v>
+        <v>808</v>
       </c>
       <c r="F285" s="2">
         <v>0</v>
@@ -9785,10 +10034,10 @@
         <v>282</v>
       </c>
       <c r="C286" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="E286" t="s">
-        <v>903</v>
+        <v>809</v>
       </c>
       <c r="F286" s="2">
         <v>0</v>
@@ -9805,10 +10054,10 @@
         <v>283</v>
       </c>
       <c r="C287" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="E287" t="s">
-        <v>904</v>
+        <v>810</v>
       </c>
       <c r="F287" s="2">
         <v>0</v>
@@ -9825,10 +10074,10 @@
         <v>284</v>
       </c>
       <c r="C288" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="E288" t="s">
-        <v>905</v>
+        <v>811</v>
       </c>
       <c r="F288" s="2">
         <v>0</v>
@@ -9845,10 +10094,10 @@
         <v>285</v>
       </c>
       <c r="C289" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="E289" t="s">
-        <v>906</v>
+        <v>812</v>
       </c>
       <c r="F289" s="2">
         <v>0</v>
@@ -9865,10 +10114,10 @@
         <v>286</v>
       </c>
       <c r="C290" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="E290" t="s">
-        <v>907</v>
+        <v>813</v>
       </c>
       <c r="F290" s="2">
         <v>0</v>
@@ -9885,10 +10134,10 @@
         <v>287</v>
       </c>
       <c r="C291" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="E291" t="s">
-        <v>908</v>
+        <v>814</v>
       </c>
       <c r="F291" s="2">
         <v>0</v>
@@ -9905,10 +10154,10 @@
         <v>288</v>
       </c>
       <c r="C292" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="E292" t="s">
-        <v>909</v>
+        <v>815</v>
       </c>
       <c r="F292" s="2">
         <v>0</v>
@@ -9925,10 +10174,10 @@
         <v>289</v>
       </c>
       <c r="C293" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="E293" t="s">
-        <v>910</v>
+        <v>816</v>
       </c>
       <c r="F293" s="2">
         <v>0</v>
@@ -9945,10 +10194,10 @@
         <v>290</v>
       </c>
       <c r="C294" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="E294" t="s">
-        <v>911</v>
+        <v>817</v>
       </c>
       <c r="F294" s="2">
         <v>0</v>
@@ -9965,10 +10214,10 @@
         <v>291</v>
       </c>
       <c r="C295" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="E295" t="s">
-        <v>912</v>
+        <v>818</v>
       </c>
       <c r="F295" s="2">
         <v>0</v>
@@ -9985,10 +10234,10 @@
         <v>292</v>
       </c>
       <c r="C296" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="E296" t="s">
-        <v>913</v>
+        <v>819</v>
       </c>
       <c r="F296" s="2">
         <v>0</v>
@@ -10005,10 +10254,10 @@
         <v>293</v>
       </c>
       <c r="C297" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="E297" t="s">
-        <v>914</v>
+        <v>820</v>
       </c>
       <c r="F297" s="2">
         <v>0</v>
@@ -10025,10 +10274,10 @@
         <v>294</v>
       </c>
       <c r="C298" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="E298" t="s">
-        <v>915</v>
+        <v>821</v>
       </c>
       <c r="F298" s="2">
         <v>0</v>
@@ -10045,10 +10294,10 @@
         <v>295</v>
       </c>
       <c r="C299" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="E299" t="s">
-        <v>916</v>
+        <v>822</v>
       </c>
       <c r="F299" s="2">
         <v>0</v>
@@ -10065,10 +10314,10 @@
         <v>296</v>
       </c>
       <c r="C300" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="E300" t="s">
-        <v>917</v>
+        <v>823</v>
       </c>
       <c r="F300" s="2">
         <v>0</v>
@@ -10085,10 +10334,10 @@
         <v>297</v>
       </c>
       <c r="C301" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="E301" t="s">
-        <v>918</v>
+        <v>824</v>
       </c>
       <c r="F301" s="2">
         <v>0</v>
@@ -10105,10 +10354,10 @@
         <v>298</v>
       </c>
       <c r="C302" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="E302" t="s">
-        <v>919</v>
+        <v>825</v>
       </c>
       <c r="F302" s="2">
         <v>0</v>
@@ -10125,10 +10374,10 @@
         <v>299</v>
       </c>
       <c r="C303" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="E303" t="s">
-        <v>920</v>
+        <v>826</v>
       </c>
       <c r="F303" s="2">
         <v>0</v>
@@ -10145,10 +10394,10 @@
         <v>300</v>
       </c>
       <c r="C304" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="E304" t="s">
-        <v>921</v>
+        <v>827</v>
       </c>
       <c r="F304" s="2">
         <v>0</v>
@@ -10165,10 +10414,10 @@
         <v>301</v>
       </c>
       <c r="C305" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="E305" t="s">
-        <v>922</v>
+        <v>828</v>
       </c>
       <c r="F305" s="2">
         <v>0</v>
@@ -10185,10 +10434,10 @@
         <v>302</v>
       </c>
       <c r="C306" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="E306" t="s">
-        <v>923</v>
+        <v>829</v>
       </c>
       <c r="F306" s="2">
         <v>0</v>
@@ -10205,10 +10454,10 @@
         <v>303</v>
       </c>
       <c r="C307" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="E307" t="s">
-        <v>924</v>
+        <v>830</v>
       </c>
       <c r="F307" s="2">
         <v>0</v>
@@ -10225,10 +10474,10 @@
         <v>304</v>
       </c>
       <c r="C308" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="E308" t="s">
-        <v>925</v>
+        <v>831</v>
       </c>
       <c r="F308" s="2">
         <v>0</v>
@@ -10245,10 +10494,10 @@
         <v>305</v>
       </c>
       <c r="C309" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="E309" t="s">
-        <v>926</v>
+        <v>832</v>
       </c>
       <c r="F309" s="2">
         <v>0</v>
@@ -10265,10 +10514,10 @@
         <v>306</v>
       </c>
       <c r="C310" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="E310" t="s">
-        <v>927</v>
+        <v>833</v>
       </c>
       <c r="F310" s="2">
         <v>0</v>
@@ -10285,10 +10534,10 @@
         <v>307</v>
       </c>
       <c r="C311" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="E311" t="s">
-        <v>928</v>
+        <v>834</v>
       </c>
       <c r="F311" s="2">
         <v>0</v>
@@ -10305,10 +10554,10 @@
         <v>308</v>
       </c>
       <c r="C312" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="E312" t="s">
-        <v>929</v>
+        <v>835</v>
       </c>
       <c r="F312" s="2">
         <v>0</v>
@@ -10325,10 +10574,10 @@
         <v>309</v>
       </c>
       <c r="C313" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="E313" t="s">
-        <v>930</v>
+        <v>836</v>
       </c>
       <c r="F313" s="2">
         <v>0</v>
@@ -10345,10 +10594,10 @@
         <v>310</v>
       </c>
       <c r="C314" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="E314" t="s">
-        <v>931</v>
+        <v>837</v>
       </c>
       <c r="F314" s="2">
         <v>0</v>
@@ -10365,10 +10614,10 @@
         <v>311</v>
       </c>
       <c r="C315" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="E315" t="s">
-        <v>932</v>
+        <v>838</v>
       </c>
       <c r="F315" s="2">
         <v>0</v>
@@ -10385,10 +10634,10 @@
         <v>312</v>
       </c>
       <c r="C316" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="E316" t="s">
-        <v>933</v>
+        <v>839</v>
       </c>
       <c r="F316" s="2">
         <v>0</v>
@@ -10405,10 +10654,10 @@
         <v>313</v>
       </c>
       <c r="C317" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="E317" t="s">
-        <v>934</v>
+        <v>840</v>
       </c>
       <c r="F317" s="2">
         <v>0</v>
@@ -10425,10 +10674,10 @@
         <v>314</v>
       </c>
       <c r="C318" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="E318" t="s">
-        <v>935</v>
+        <v>841</v>
       </c>
       <c r="F318" s="2">
         <v>0</v>
@@ -10445,10 +10694,10 @@
         <v>315</v>
       </c>
       <c r="C319" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="E319" t="s">
-        <v>936</v>
+        <v>842</v>
       </c>
       <c r="F319" s="2">
         <v>0</v>
@@ -10465,10 +10714,10 @@
         <v>316</v>
       </c>
       <c r="C320" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="E320" t="s">
-        <v>937</v>
+        <v>843</v>
       </c>
       <c r="F320" s="2">
         <v>0</v>
@@ -10485,10 +10734,10 @@
         <v>317</v>
       </c>
       <c r="C321" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="E321" t="s">
-        <v>938</v>
+        <v>844</v>
       </c>
       <c r="F321" s="2">
         <v>0</v>
@@ -10505,10 +10754,10 @@
         <v>318</v>
       </c>
       <c r="C322" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="E322" t="s">
-        <v>939</v>
+        <v>845</v>
       </c>
       <c r="F322" s="2">
         <v>0</v>
@@ -10525,10 +10774,10 @@
         <v>319</v>
       </c>
       <c r="C323" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="E323" t="s">
-        <v>940</v>
+        <v>846</v>
       </c>
       <c r="F323" s="2">
         <v>0</v>
@@ -10545,10 +10794,10 @@
         <v>320</v>
       </c>
       <c r="C324" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="E324" t="s">
-        <v>941</v>
+        <v>847</v>
       </c>
       <c r="F324" s="2">
         <v>0</v>
@@ -10565,10 +10814,10 @@
         <v>321</v>
       </c>
       <c r="C325" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="E325" t="s">
-        <v>942</v>
+        <v>848</v>
       </c>
       <c r="F325" s="2">
         <v>0</v>
@@ -10585,10 +10834,10 @@
         <v>322</v>
       </c>
       <c r="C326" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="E326" t="s">
-        <v>943</v>
+        <v>849</v>
       </c>
       <c r="F326" s="2">
         <v>0</v>
@@ -10605,10 +10854,10 @@
         <v>323</v>
       </c>
       <c r="C327" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E327" t="s">
-        <v>944</v>
+        <v>850</v>
       </c>
       <c r="F327" s="2">
         <v>0</v>
@@ -10625,10 +10874,10 @@
         <v>324</v>
       </c>
       <c r="C328" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="E328" t="s">
-        <v>945</v>
+        <v>851</v>
       </c>
       <c r="F328" s="2">
         <v>0</v>
@@ -10645,10 +10894,10 @@
         <v>325</v>
       </c>
       <c r="C329" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="E329" t="s">
-        <v>946</v>
+        <v>852</v>
       </c>
       <c r="F329" s="2">
         <v>0</v>
@@ -10665,10 +10914,10 @@
         <v>326</v>
       </c>
       <c r="C330" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="E330" t="s">
-        <v>947</v>
+        <v>853</v>
       </c>
       <c r="F330" s="2">
         <v>0</v>
@@ -10685,10 +10934,10 @@
         <v>327</v>
       </c>
       <c r="C331" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="E331" t="s">
-        <v>948</v>
+        <v>854</v>
       </c>
       <c r="F331" s="2">
         <v>0</v>
@@ -10705,10 +10954,10 @@
         <v>328</v>
       </c>
       <c r="C332" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E332" t="s">
-        <v>949</v>
+        <v>855</v>
       </c>
       <c r="F332" s="2">
         <v>0</v>
@@ -10725,10 +10974,10 @@
         <v>329</v>
       </c>
       <c r="C333" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="E333" t="s">
-        <v>950</v>
+        <v>856</v>
       </c>
       <c r="F333" s="2">
         <v>0</v>
@@ -10745,10 +10994,10 @@
         <v>330</v>
       </c>
       <c r="C334" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="E334" t="s">
-        <v>951</v>
+        <v>857</v>
       </c>
       <c r="F334" s="2">
         <v>0</v>
@@ -10765,10 +11014,10 @@
         <v>331</v>
       </c>
       <c r="C335" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="E335" t="s">
-        <v>952</v>
+        <v>858</v>
       </c>
       <c r="F335" s="2">
         <v>0</v>
@@ -10785,10 +11034,10 @@
         <v>332</v>
       </c>
       <c r="C336" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="E336" t="s">
-        <v>953</v>
+        <v>859</v>
       </c>
       <c r="F336" s="2">
         <v>0</v>
@@ -10805,10 +11054,10 @@
         <v>333</v>
       </c>
       <c r="C337" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="E337" t="s">
-        <v>954</v>
+        <v>860</v>
       </c>
       <c r="F337" s="2">
         <v>0</v>
@@ -10825,10 +11074,10 @@
         <v>334</v>
       </c>
       <c r="C338" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="E338" t="s">
-        <v>955</v>
+        <v>861</v>
       </c>
       <c r="F338" s="2">
         <v>0</v>
@@ -10845,10 +11094,10 @@
         <v>335</v>
       </c>
       <c r="C339" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="E339" t="s">
-        <v>956</v>
+        <v>862</v>
       </c>
       <c r="F339" s="2">
         <v>0</v>
@@ -10865,10 +11114,10 @@
         <v>336</v>
       </c>
       <c r="C340" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="E340" t="s">
-        <v>957</v>
+        <v>863</v>
       </c>
       <c r="F340" s="2">
         <v>0</v>
@@ -10885,10 +11134,10 @@
         <v>337</v>
       </c>
       <c r="C341" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="E341" t="s">
-        <v>958</v>
+        <v>864</v>
       </c>
       <c r="F341" s="2">
         <v>0</v>
@@ -10905,10 +11154,10 @@
         <v>338</v>
       </c>
       <c r="C342" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="E342" t="s">
-        <v>959</v>
+        <v>865</v>
       </c>
       <c r="F342" s="2">
         <v>0</v>
@@ -10925,10 +11174,10 @@
         <v>339</v>
       </c>
       <c r="C343" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="E343" t="s">
-        <v>960</v>
+        <v>866</v>
       </c>
       <c r="F343" s="2">
         <v>0</v>
@@ -10945,10 +11194,10 @@
         <v>340</v>
       </c>
       <c r="C344" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="E344" t="s">
-        <v>961</v>
+        <v>867</v>
       </c>
       <c r="F344" s="2">
         <v>0</v>
@@ -10965,10 +11214,10 @@
         <v>341</v>
       </c>
       <c r="C345" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="E345" t="s">
-        <v>962</v>
+        <v>868</v>
       </c>
       <c r="F345" s="2">
         <v>0</v>
@@ -10985,10 +11234,10 @@
         <v>342</v>
       </c>
       <c r="C346" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="E346" t="s">
-        <v>963</v>
+        <v>869</v>
       </c>
       <c r="F346" s="2">
         <v>0</v>
@@ -11005,10 +11254,10 @@
         <v>343</v>
       </c>
       <c r="C347" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="E347" t="s">
-        <v>964</v>
+        <v>870</v>
       </c>
       <c r="F347" s="2">
         <v>0</v>
@@ -11025,10 +11274,10 @@
         <v>344</v>
       </c>
       <c r="C348" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="E348" t="s">
-        <v>965</v>
+        <v>871</v>
       </c>
       <c r="F348" s="2">
         <v>0</v>
@@ -11045,10 +11294,10 @@
         <v>345</v>
       </c>
       <c r="C349" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="E349" t="s">
-        <v>966</v>
+        <v>872</v>
       </c>
       <c r="F349" s="2">
         <v>0</v>
@@ -11065,10 +11314,10 @@
         <v>346</v>
       </c>
       <c r="C350" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="E350" t="s">
-        <v>967</v>
+        <v>873</v>
       </c>
       <c r="F350" s="2">
         <v>0</v>
@@ -11085,10 +11334,10 @@
         <v>347</v>
       </c>
       <c r="C351" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="E351" t="s">
-        <v>968</v>
+        <v>874</v>
       </c>
       <c r="F351" s="2">
         <v>0</v>
@@ -11105,10 +11354,10 @@
         <v>348</v>
       </c>
       <c r="C352" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="E352" t="s">
-        <v>969</v>
+        <v>875</v>
       </c>
       <c r="F352" s="2">
         <v>0</v>
@@ -11125,10 +11374,10 @@
         <v>349</v>
       </c>
       <c r="C353" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="E353" t="s">
-        <v>970</v>
+        <v>876</v>
       </c>
       <c r="F353" s="2">
         <v>0</v>
@@ -11145,10 +11394,10 @@
         <v>350</v>
       </c>
       <c r="C354" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="E354" t="s">
-        <v>971</v>
+        <v>877</v>
       </c>
       <c r="F354" s="2">
         <v>0</v>
@@ -11165,10 +11414,10 @@
         <v>351</v>
       </c>
       <c r="C355" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="E355" t="s">
-        <v>972</v>
+        <v>878</v>
       </c>
       <c r="F355" s="2">
         <v>0</v>
@@ -11185,10 +11434,10 @@
         <v>352</v>
       </c>
       <c r="C356" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="E356" t="s">
-        <v>973</v>
+        <v>879</v>
       </c>
       <c r="F356" s="2">
         <v>0</v>
@@ -11205,10 +11454,10 @@
         <v>353</v>
       </c>
       <c r="C357" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="E357" t="s">
-        <v>974</v>
+        <v>880</v>
       </c>
       <c r="F357" s="2">
         <v>0</v>
@@ -11225,10 +11474,10 @@
         <v>354</v>
       </c>
       <c r="C358" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="E358" t="s">
-        <v>975</v>
+        <v>881</v>
       </c>
       <c r="F358" s="2">
         <v>0</v>
@@ -11245,10 +11494,10 @@
         <v>355</v>
       </c>
       <c r="C359" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="E359" t="s">
-        <v>976</v>
+        <v>882</v>
       </c>
       <c r="F359" s="2">
         <v>0</v>
@@ -11265,10 +11514,10 @@
         <v>356</v>
       </c>
       <c r="C360" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="E360" t="s">
-        <v>977</v>
+        <v>883</v>
       </c>
       <c r="F360" s="2">
         <v>0</v>
@@ -11285,10 +11534,10 @@
         <v>357</v>
       </c>
       <c r="C361" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="E361" t="s">
-        <v>978</v>
+        <v>884</v>
       </c>
       <c r="F361" s="2">
         <v>0</v>
@@ -11305,10 +11554,10 @@
         <v>358</v>
       </c>
       <c r="C362" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="E362" t="s">
-        <v>979</v>
+        <v>885</v>
       </c>
       <c r="F362" s="2">
         <v>0</v>
@@ -11325,10 +11574,10 @@
         <v>359</v>
       </c>
       <c r="C363" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="E363" t="s">
-        <v>980</v>
+        <v>886</v>
       </c>
       <c r="F363" s="2">
         <v>0</v>
@@ -11345,10 +11594,10 @@
         <v>360</v>
       </c>
       <c r="C364" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="E364" t="s">
-        <v>981</v>
+        <v>887</v>
       </c>
       <c r="F364" s="2">
         <v>0</v>
@@ -11365,10 +11614,10 @@
         <v>361</v>
       </c>
       <c r="C365" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="E365" t="s">
-        <v>982</v>
+        <v>888</v>
       </c>
       <c r="F365" s="2">
         <v>0</v>
@@ -11385,10 +11634,10 @@
         <v>362</v>
       </c>
       <c r="C366" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="E366" t="s">
-        <v>983</v>
+        <v>889</v>
       </c>
       <c r="F366" s="2">
         <v>0</v>
@@ -11405,10 +11654,10 @@
         <v>363</v>
       </c>
       <c r="C367" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="E367" t="s">
-        <v>984</v>
+        <v>890</v>
       </c>
       <c r="F367" s="2">
         <v>0</v>
@@ -11425,10 +11674,10 @@
         <v>364</v>
       </c>
       <c r="C368" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="E368" t="s">
-        <v>985</v>
+        <v>891</v>
       </c>
       <c r="F368" s="2">
         <v>0</v>
@@ -11445,10 +11694,10 @@
         <v>365</v>
       </c>
       <c r="C369" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="E369" t="s">
-        <v>986</v>
+        <v>892</v>
       </c>
       <c r="F369" s="2">
         <v>0</v>
@@ -11465,10 +11714,10 @@
         <v>366</v>
       </c>
       <c r="C370" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="E370" t="s">
-        <v>987</v>
+        <v>893</v>
       </c>
       <c r="F370" s="2">
         <v>0</v>
@@ -11485,10 +11734,10 @@
         <v>367</v>
       </c>
       <c r="C371" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="E371" t="s">
-        <v>988</v>
+        <v>894</v>
       </c>
       <c r="F371" s="2">
         <v>0</v>
@@ -11505,10 +11754,10 @@
         <v>368</v>
       </c>
       <c r="C372" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="E372" t="s">
-        <v>989</v>
+        <v>895</v>
       </c>
       <c r="F372" s="2">
         <v>0</v>
@@ -11525,10 +11774,10 @@
         <v>369</v>
       </c>
       <c r="C373" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="E373" t="s">
-        <v>990</v>
+        <v>896</v>
       </c>
       <c r="F373" s="2">
         <v>0</v>
@@ -11545,10 +11794,10 @@
         <v>370</v>
       </c>
       <c r="C374" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="E374" t="s">
-        <v>991</v>
+        <v>897</v>
       </c>
       <c r="F374" s="2">
         <v>0</v>
@@ -11565,10 +11814,10 @@
         <v>371</v>
       </c>
       <c r="C375" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="E375" t="s">
-        <v>992</v>
+        <v>898</v>
       </c>
       <c r="F375" s="2">
         <v>0</v>
@@ -11585,10 +11834,10 @@
         <v>372</v>
       </c>
       <c r="C376" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="E376" t="s">
-        <v>993</v>
+        <v>899</v>
       </c>
       <c r="F376" s="2">
         <v>0</v>
@@ -11605,10 +11854,10 @@
         <v>373</v>
       </c>
       <c r="C377" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="E377" t="s">
-        <v>994</v>
+        <v>900</v>
       </c>
       <c r="F377" s="2">
         <v>0</v>
@@ -11625,10 +11874,10 @@
         <v>374</v>
       </c>
       <c r="C378" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="E378" t="s">
-        <v>995</v>
+        <v>901</v>
       </c>
       <c r="F378" s="2">
         <v>0</v>
@@ -11645,10 +11894,10 @@
         <v>375</v>
       </c>
       <c r="C379" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="E379" t="s">
-        <v>996</v>
+        <v>902</v>
       </c>
       <c r="F379" s="2">
         <v>0</v>
@@ -11665,10 +11914,10 @@
         <v>376</v>
       </c>
       <c r="C380" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="E380" t="s">
-        <v>997</v>
+        <v>903</v>
       </c>
       <c r="F380" s="2">
         <v>0</v>
@@ -11685,10 +11934,10 @@
         <v>377</v>
       </c>
       <c r="C381" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="E381" t="s">
-        <v>998</v>
+        <v>904</v>
       </c>
       <c r="F381" s="2">
         <v>0</v>
@@ -11705,10 +11954,10 @@
         <v>378</v>
       </c>
       <c r="C382" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="E382" t="s">
-        <v>999</v>
+        <v>905</v>
       </c>
       <c r="F382" s="2">
         <v>0</v>
@@ -11725,10 +11974,10 @@
         <v>379</v>
       </c>
       <c r="C383" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="E383" t="s">
-        <v>1000</v>
+        <v>906</v>
       </c>
       <c r="F383" s="2">
         <v>0</v>
@@ -11745,10 +11994,10 @@
         <v>380</v>
       </c>
       <c r="C384" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="E384" t="s">
-        <v>1001</v>
+        <v>907</v>
       </c>
       <c r="F384" s="2">
         <v>0</v>
@@ -11765,10 +12014,10 @@
         <v>381</v>
       </c>
       <c r="C385" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="E385" t="s">
-        <v>1002</v>
+        <v>908</v>
       </c>
       <c r="F385" s="2">
         <v>0</v>
@@ -11785,10 +12034,10 @@
         <v>382</v>
       </c>
       <c r="C386" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="E386" t="s">
-        <v>1003</v>
+        <v>909</v>
       </c>
       <c r="F386" s="2">
         <v>0</v>
@@ -11805,10 +12054,10 @@
         <v>383</v>
       </c>
       <c r="C387" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="E387" t="s">
-        <v>1004</v>
+        <v>910</v>
       </c>
       <c r="F387" s="2">
         <v>0</v>
@@ -11825,10 +12074,10 @@
         <v>384</v>
       </c>
       <c r="C388" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="E388" t="s">
-        <v>1005</v>
+        <v>911</v>
       </c>
       <c r="F388" s="2">
         <v>0</v>
@@ -11845,10 +12094,10 @@
         <v>385</v>
       </c>
       <c r="C389" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="E389" t="s">
-        <v>1006</v>
+        <v>912</v>
       </c>
       <c r="F389" s="2">
         <v>0</v>
@@ -11865,10 +12114,10 @@
         <v>386</v>
       </c>
       <c r="C390" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="E390" t="s">
-        <v>1007</v>
+        <v>913</v>
       </c>
       <c r="F390" s="2">
         <v>0</v>
@@ -11885,10 +12134,10 @@
         <v>387</v>
       </c>
       <c r="C391" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="E391" t="s">
-        <v>1008</v>
+        <v>914</v>
       </c>
       <c r="F391" s="2">
         <v>0</v>
@@ -11905,10 +12154,10 @@
         <v>388</v>
       </c>
       <c r="C392" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="E392" t="s">
-        <v>1009</v>
+        <v>915</v>
       </c>
       <c r="F392" s="2">
         <v>0</v>
@@ -11925,10 +12174,10 @@
         <v>389</v>
       </c>
       <c r="C393" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="E393" t="s">
-        <v>1010</v>
+        <v>916</v>
       </c>
       <c r="F393" s="2">
         <v>0</v>
@@ -11945,10 +12194,10 @@
         <v>390</v>
       </c>
       <c r="C394" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="E394" t="s">
-        <v>1011</v>
+        <v>917</v>
       </c>
       <c r="F394" s="2">
         <v>0</v>
@@ -11965,10 +12214,10 @@
         <v>391</v>
       </c>
       <c r="C395" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="E395" t="s">
-        <v>1012</v>
+        <v>918</v>
       </c>
       <c r="F395" s="2">
         <v>0</v>
@@ -11985,10 +12234,10 @@
         <v>392</v>
       </c>
       <c r="C396" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="E396" t="s">
-        <v>1013</v>
+        <v>919</v>
       </c>
       <c r="F396" s="2">
         <v>0</v>
@@ -12005,10 +12254,10 @@
         <v>393</v>
       </c>
       <c r="C397" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="E397" t="s">
-        <v>1014</v>
+        <v>920</v>
       </c>
       <c r="F397" s="2">
         <v>0</v>
@@ -12025,10 +12274,10 @@
         <v>394</v>
       </c>
       <c r="C398" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E398" t="s">
-        <v>1015</v>
+        <v>921</v>
       </c>
       <c r="F398" s="2">
         <v>0</v>
@@ -12045,10 +12294,10 @@
         <v>395</v>
       </c>
       <c r="C399" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="E399" t="s">
-        <v>1016</v>
+        <v>922</v>
       </c>
       <c r="F399" s="2">
         <v>0</v>
@@ -12065,10 +12314,10 @@
         <v>396</v>
       </c>
       <c r="C400" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="E400" t="s">
-        <v>1017</v>
+        <v>923</v>
       </c>
       <c r="F400" s="2">
         <v>0</v>
@@ -12085,10 +12334,10 @@
         <v>397</v>
       </c>
       <c r="C401" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="E401" t="s">
-        <v>1018</v>
+        <v>924</v>
       </c>
       <c r="F401" s="2">
         <v>0</v>
@@ -12105,10 +12354,10 @@
         <v>398</v>
       </c>
       <c r="C402" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="E402" t="s">
-        <v>1019</v>
+        <v>925</v>
       </c>
       <c r="F402" s="2">
         <v>0</v>
@@ -12125,10 +12374,10 @@
         <v>399</v>
       </c>
       <c r="C403" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="E403" t="s">
-        <v>1020</v>
+        <v>926</v>
       </c>
       <c r="F403" s="2">
         <v>0</v>
@@ -12145,10 +12394,10 @@
         <v>400</v>
       </c>
       <c r="C404" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="E404" t="s">
-        <v>1021</v>
+        <v>927</v>
       </c>
       <c r="F404" s="2">
         <v>0</v>
@@ -12165,10 +12414,10 @@
         <v>401</v>
       </c>
       <c r="C405" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="E405" t="s">
-        <v>1022</v>
+        <v>928</v>
       </c>
       <c r="F405" s="2">
         <v>0</v>
@@ -12185,10 +12434,10 @@
         <v>402</v>
       </c>
       <c r="C406" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E406" t="s">
-        <v>1023</v>
+        <v>929</v>
       </c>
       <c r="F406" s="2">
         <v>0</v>
@@ -12205,10 +12454,10 @@
         <v>403</v>
       </c>
       <c r="C407" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="E407" t="s">
-        <v>1024</v>
+        <v>930</v>
       </c>
       <c r="F407" s="2">
         <v>0</v>
@@ -12225,10 +12474,10 @@
         <v>404</v>
       </c>
       <c r="C408" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="E408" t="s">
-        <v>1025</v>
+        <v>931</v>
       </c>
       <c r="F408" s="2">
         <v>0</v>
@@ -12245,10 +12494,10 @@
         <v>405</v>
       </c>
       <c r="C409" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="E409" t="s">
-        <v>1026</v>
+        <v>932</v>
       </c>
       <c r="F409" s="2">
         <v>0</v>
@@ -12265,10 +12514,10 @@
         <v>406</v>
       </c>
       <c r="C410" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="E410" t="s">
-        <v>1027</v>
+        <v>933</v>
       </c>
       <c r="F410" s="2">
         <v>0</v>
@@ -12285,10 +12534,10 @@
         <v>407</v>
       </c>
       <c r="C411" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="E411" t="s">
-        <v>1028</v>
+        <v>934</v>
       </c>
       <c r="F411" s="2">
         <v>0</v>
@@ -12305,10 +12554,10 @@
         <v>408</v>
       </c>
       <c r="C412" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="E412" t="s">
-        <v>1029</v>
+        <v>935</v>
       </c>
       <c r="F412" s="2">
         <v>0</v>
@@ -12325,10 +12574,10 @@
         <v>409</v>
       </c>
       <c r="C413" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="E413" t="s">
-        <v>1030</v>
+        <v>936</v>
       </c>
       <c r="F413" s="2">
         <v>0</v>
@@ -12345,10 +12594,10 @@
         <v>410</v>
       </c>
       <c r="C414" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="E414" t="s">
-        <v>1031</v>
+        <v>937</v>
       </c>
       <c r="F414" s="2">
         <v>0</v>
@@ -12365,10 +12614,10 @@
         <v>411</v>
       </c>
       <c r="C415" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="E415" t="s">
-        <v>1032</v>
+        <v>938</v>
       </c>
       <c r="F415" s="2">
         <v>0</v>
@@ -12385,10 +12634,10 @@
         <v>412</v>
       </c>
       <c r="C416" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E416" t="s">
-        <v>1033</v>
+        <v>939</v>
       </c>
       <c r="F416" s="2">
         <v>0</v>
@@ -12405,10 +12654,10 @@
         <v>413</v>
       </c>
       <c r="C417" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="E417" t="s">
-        <v>1034</v>
+        <v>940</v>
       </c>
       <c r="F417" s="2">
         <v>0</v>
@@ -12425,10 +12674,10 @@
         <v>414</v>
       </c>
       <c r="C418" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="E418" t="s">
-        <v>1035</v>
+        <v>941</v>
       </c>
       <c r="F418" s="2">
         <v>0</v>
@@ -12445,10 +12694,10 @@
         <v>415</v>
       </c>
       <c r="C419" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="E419" t="s">
-        <v>1036</v>
+        <v>942</v>
       </c>
       <c r="F419" s="2">
         <v>0</v>
@@ -12465,10 +12714,10 @@
         <v>416</v>
       </c>
       <c r="C420" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="E420" t="s">
-        <v>1037</v>
+        <v>943</v>
       </c>
       <c r="F420" s="2">
         <v>0</v>
@@ -12485,10 +12734,10 @@
         <v>417</v>
       </c>
       <c r="C421" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="E421" t="s">
-        <v>1038</v>
+        <v>944</v>
       </c>
       <c r="F421" s="2">
         <v>0</v>
@@ -12505,10 +12754,10 @@
         <v>418</v>
       </c>
       <c r="C422" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="E422" t="s">
-        <v>1039</v>
+        <v>945</v>
       </c>
       <c r="F422" s="2">
         <v>0</v>
@@ -12525,10 +12774,10 @@
         <v>419</v>
       </c>
       <c r="C423" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="E423" t="s">
-        <v>1040</v>
+        <v>946</v>
       </c>
       <c r="F423" s="2">
         <v>0</v>
@@ -12545,10 +12794,10 @@
         <v>420</v>
       </c>
       <c r="C424" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="E424" t="s">
-        <v>1041</v>
+        <v>947</v>
       </c>
       <c r="F424" s="2">
         <v>0</v>
@@ -12565,10 +12814,10 @@
         <v>421</v>
       </c>
       <c r="C425" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="E425" t="s">
-        <v>1042</v>
+        <v>948</v>
       </c>
       <c r="F425" s="2">
         <v>0</v>
@@ -12585,10 +12834,10 @@
         <v>422</v>
       </c>
       <c r="C426" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="E426" t="s">
-        <v>1043</v>
+        <v>949</v>
       </c>
       <c r="F426" s="2">
         <v>0</v>
@@ -12605,10 +12854,10 @@
         <v>423</v>
       </c>
       <c r="C427" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="E427" t="s">
-        <v>1044</v>
+        <v>950</v>
       </c>
       <c r="F427" s="2">
         <v>0</v>
@@ -12625,10 +12874,10 @@
         <v>424</v>
       </c>
       <c r="C428" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="E428" t="s">
-        <v>1045</v>
+        <v>951</v>
       </c>
       <c r="F428" s="2">
         <v>0</v>
@@ -12645,10 +12894,10 @@
         <v>425</v>
       </c>
       <c r="C429" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="E429" t="s">
-        <v>1046</v>
+        <v>952</v>
       </c>
       <c r="F429" s="2">
         <v>0</v>
@@ -12665,10 +12914,10 @@
         <v>426</v>
       </c>
       <c r="C430" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="E430" t="s">
-        <v>1047</v>
+        <v>953</v>
       </c>
       <c r="F430" s="2">
         <v>0</v>
@@ -12685,10 +12934,10 @@
         <v>427</v>
       </c>
       <c r="C431" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="E431" t="s">
-        <v>1048</v>
+        <v>954</v>
       </c>
       <c r="F431" s="2">
         <v>0</v>
@@ -12705,10 +12954,10 @@
         <v>428</v>
       </c>
       <c r="C432" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="E432" t="s">
-        <v>1049</v>
+        <v>955</v>
       </c>
       <c r="F432" s="2">
         <v>0</v>
@@ -12725,10 +12974,10 @@
         <v>429</v>
       </c>
       <c r="C433" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="E433" t="s">
-        <v>1050</v>
+        <v>956</v>
       </c>
       <c r="F433" s="2">
         <v>0</v>
@@ -12745,10 +12994,10 @@
         <v>430</v>
       </c>
       <c r="C434" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="E434" t="s">
-        <v>1051</v>
+        <v>957</v>
       </c>
       <c r="F434" s="2">
         <v>0</v>
@@ -12765,10 +13014,10 @@
         <v>431</v>
       </c>
       <c r="C435" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="E435" t="s">
-        <v>1052</v>
+        <v>958</v>
       </c>
       <c r="F435" s="2">
         <v>0</v>
@@ -12785,10 +13034,10 @@
         <v>432</v>
       </c>
       <c r="C436" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="E436" t="s">
-        <v>1053</v>
+        <v>959</v>
       </c>
       <c r="F436" s="2">
         <v>0</v>
@@ -12805,10 +13054,10 @@
         <v>433</v>
       </c>
       <c r="C437" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="E437" t="s">
-        <v>1054</v>
+        <v>960</v>
       </c>
       <c r="F437" s="2">
         <v>0</v>
@@ -12825,10 +13074,10 @@
         <v>434</v>
       </c>
       <c r="C438" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="E438" t="s">
-        <v>1055</v>
+        <v>961</v>
       </c>
       <c r="F438" s="2">
         <v>0</v>
@@ -12845,10 +13094,10 @@
         <v>435</v>
       </c>
       <c r="C439" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="E439" t="s">
-        <v>1056</v>
+        <v>962</v>
       </c>
       <c r="F439" s="2">
         <v>0</v>
@@ -12865,10 +13114,10 @@
         <v>436</v>
       </c>
       <c r="C440" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="E440" t="s">
-        <v>1057</v>
+        <v>963</v>
       </c>
       <c r="F440" s="2">
         <v>0</v>
@@ -12885,10 +13134,10 @@
         <v>437</v>
       </c>
       <c r="C441" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="E441" t="s">
-        <v>1058</v>
+        <v>964</v>
       </c>
       <c r="F441" s="2">
         <v>0</v>
@@ -12905,10 +13154,10 @@
         <v>438</v>
       </c>
       <c r="C442" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E442" t="s">
-        <v>1059</v>
+        <v>965</v>
       </c>
       <c r="F442" s="2">
         <v>0</v>
@@ -12925,10 +13174,10 @@
         <v>439</v>
       </c>
       <c r="C443" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="E443" t="s">
-        <v>1060</v>
+        <v>966</v>
       </c>
       <c r="F443" s="2">
         <v>0</v>
@@ -12945,10 +13194,10 @@
         <v>440</v>
       </c>
       <c r="C444" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="E444" t="s">
-        <v>1061</v>
+        <v>967</v>
       </c>
       <c r="F444" s="2">
         <v>0</v>
@@ -12965,10 +13214,10 @@
         <v>441</v>
       </c>
       <c r="C445" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="E445" t="s">
-        <v>1062</v>
+        <v>968</v>
       </c>
       <c r="F445" s="2">
         <v>0</v>
@@ -12985,10 +13234,10 @@
         <v>442</v>
       </c>
       <c r="C446" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E446" t="s">
-        <v>1063</v>
+        <v>969</v>
       </c>
       <c r="F446" s="2">
         <v>0</v>
@@ -13005,10 +13254,10 @@
         <v>443</v>
       </c>
       <c r="C447" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="E447" t="s">
-        <v>1064</v>
+        <v>970</v>
       </c>
       <c r="F447" s="2">
         <v>0</v>
@@ -13025,10 +13274,10 @@
         <v>444</v>
       </c>
       <c r="C448" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="E448" t="s">
-        <v>1065</v>
+        <v>971</v>
       </c>
       <c r="F448" s="2">
         <v>0</v>
@@ -13045,10 +13294,10 @@
         <v>445</v>
       </c>
       <c r="C449" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="E449" t="s">
-        <v>1066</v>
+        <v>972</v>
       </c>
       <c r="F449" s="2">
         <v>0</v>
@@ -13065,10 +13314,10 @@
         <v>446</v>
       </c>
       <c r="C450" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="E450" t="s">
-        <v>1067</v>
+        <v>973</v>
       </c>
       <c r="F450" s="2">
         <v>0</v>
@@ -13085,10 +13334,10 @@
         <v>447</v>
       </c>
       <c r="C451" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="E451" t="s">
-        <v>1068</v>
+        <v>974</v>
       </c>
       <c r="F451" s="2">
         <v>0</v>
@@ -13105,10 +13354,10 @@
         <v>448</v>
       </c>
       <c r="C452" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="E452" t="s">
-        <v>1069</v>
+        <v>975</v>
       </c>
       <c r="F452" s="2">
         <v>0</v>
@@ -13125,10 +13374,10 @@
         <v>449</v>
       </c>
       <c r="C453" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="E453" t="s">
-        <v>1070</v>
+        <v>976</v>
       </c>
       <c r="F453" s="2">
         <v>0</v>
@@ -13145,10 +13394,10 @@
         <v>450</v>
       </c>
       <c r="C454" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="E454" t="s">
-        <v>1071</v>
+        <v>977</v>
       </c>
       <c r="F454" s="2">
         <v>0</v>
@@ -13165,10 +13414,10 @@
         <v>451</v>
       </c>
       <c r="C455" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="E455" t="s">
-        <v>1072</v>
+        <v>978</v>
       </c>
       <c r="F455" s="2">
         <v>0</v>
@@ -13185,10 +13434,10 @@
         <v>452</v>
       </c>
       <c r="C456" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="E456" t="s">
-        <v>1073</v>
+        <v>979</v>
       </c>
       <c r="F456" s="2">
         <v>0</v>
@@ -13205,10 +13454,10 @@
         <v>453</v>
       </c>
       <c r="C457" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="E457" t="s">
-        <v>1074</v>
+        <v>980</v>
       </c>
       <c r="F457" s="2">
         <v>0</v>
@@ -13225,10 +13474,10 @@
         <v>454</v>
       </c>
       <c r="C458" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="E458" t="s">
-        <v>1075</v>
+        <v>981</v>
       </c>
       <c r="F458" s="2">
         <v>0</v>
@@ -13245,10 +13494,10 @@
         <v>455</v>
       </c>
       <c r="C459" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="E459" t="s">
-        <v>1076</v>
+        <v>982</v>
       </c>
       <c r="F459" s="2">
         <v>0</v>
@@ -13265,10 +13514,10 @@
         <v>456</v>
       </c>
       <c r="C460" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="E460" t="s">
-        <v>1077</v>
+        <v>983</v>
       </c>
       <c r="F460" s="2">
         <v>0</v>
@@ -13285,10 +13534,10 @@
         <v>457</v>
       </c>
       <c r="C461" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="E461" t="s">
-        <v>1078</v>
+        <v>984</v>
       </c>
       <c r="F461" s="2">
         <v>0</v>
@@ -13305,10 +13554,10 @@
         <v>458</v>
       </c>
       <c r="C462" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="E462" t="s">
-        <v>1079</v>
+        <v>985</v>
       </c>
       <c r="F462" s="2">
         <v>0</v>
@@ -13325,10 +13574,10 @@
         <v>459</v>
       </c>
       <c r="C463" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="E463" t="s">
-        <v>1080</v>
+        <v>986</v>
       </c>
       <c r="F463" s="2">
         <v>0</v>
@@ -13345,10 +13594,10 @@
         <v>460</v>
       </c>
       <c r="C464" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="E464" t="s">
-        <v>1081</v>
+        <v>987</v>
       </c>
       <c r="F464" s="2">
         <v>0</v>
@@ -13365,10 +13614,10 @@
         <v>461</v>
       </c>
       <c r="C465" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="E465" t="s">
-        <v>1082</v>
+        <v>988</v>
       </c>
       <c r="F465" s="2">
         <v>0</v>
@@ -13385,10 +13634,10 @@
         <v>462</v>
       </c>
       <c r="C466" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="E466" t="s">
-        <v>1083</v>
+        <v>989</v>
       </c>
       <c r="F466" s="2">
         <v>0</v>
@@ -13405,10 +13654,10 @@
         <v>463</v>
       </c>
       <c r="C467" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="E467" t="s">
-        <v>1084</v>
+        <v>990</v>
       </c>
       <c r="F467" s="2">
         <v>0</v>
@@ -13425,10 +13674,10 @@
         <v>464</v>
       </c>
       <c r="C468" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="E468" t="s">
-        <v>1085</v>
+        <v>991</v>
       </c>
       <c r="F468" s="2">
         <v>0</v>
@@ -13445,10 +13694,10 @@
         <v>465</v>
       </c>
       <c r="C469" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="E469" t="s">
-        <v>1086</v>
+        <v>992</v>
       </c>
       <c r="F469" s="2">
         <v>0</v>
@@ -13465,10 +13714,10 @@
         <v>466</v>
       </c>
       <c r="C470" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="E470" t="s">
-        <v>1087</v>
+        <v>993</v>
       </c>
       <c r="F470" s="2">
         <v>0</v>
@@ -13485,10 +13734,10 @@
         <v>467</v>
       </c>
       <c r="C471" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="E471" t="s">
-        <v>1088</v>
+        <v>994</v>
       </c>
       <c r="F471" s="2">
         <v>0</v>
@@ -13505,10 +13754,10 @@
         <v>468</v>
       </c>
       <c r="C472" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="E472" t="s">
-        <v>1089</v>
+        <v>995</v>
       </c>
       <c r="F472" s="2">
         <v>0</v>
@@ -13525,10 +13774,10 @@
         <v>469</v>
       </c>
       <c r="C473" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="E473" t="s">
-        <v>1090</v>
+        <v>996</v>
       </c>
       <c r="F473" s="2">
         <v>0</v>
@@ -13545,10 +13794,10 @@
         <v>470</v>
       </c>
       <c r="C474" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="E474" t="s">
-        <v>1091</v>
+        <v>997</v>
       </c>
       <c r="F474" s="2">
         <v>0</v>
@@ -13565,10 +13814,10 @@
         <v>471</v>
       </c>
       <c r="C475" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="E475" t="s">
-        <v>1092</v>
+        <v>998</v>
       </c>
       <c r="F475" s="2">
         <v>0</v>
@@ -13585,10 +13834,10 @@
         <v>472</v>
       </c>
       <c r="C476" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="E476" t="s">
-        <v>1093</v>
+        <v>999</v>
       </c>
       <c r="F476" s="2">
         <v>0</v>
@@ -13605,10 +13854,10 @@
         <v>473</v>
       </c>
       <c r="C477" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="E477" t="s">
-        <v>1094</v>
+        <v>1000</v>
       </c>
       <c r="F477" s="2">
         <v>0</v>
@@ -13625,10 +13874,10 @@
         <v>474</v>
       </c>
       <c r="C478" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="E478" t="s">
-        <v>1095</v>
+        <v>1001</v>
       </c>
       <c r="F478" s="2">
         <v>0</v>
@@ -13645,10 +13894,10 @@
         <v>475</v>
       </c>
       <c r="C479" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="E479" t="s">
-        <v>1096</v>
+        <v>1002</v>
       </c>
       <c r="F479" s="2">
         <v>0</v>
@@ -13665,10 +13914,10 @@
         <v>476</v>
       </c>
       <c r="C480" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="E480" t="s">
-        <v>1097</v>
+        <v>1003</v>
       </c>
       <c r="F480" s="2">
         <v>0</v>
@@ -13685,10 +13934,10 @@
         <v>477</v>
       </c>
       <c r="C481" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="E481" t="s">
-        <v>1098</v>
+        <v>1004</v>
       </c>
       <c r="F481" s="2">
         <v>0</v>
@@ -13705,10 +13954,10 @@
         <v>478</v>
       </c>
       <c r="C482" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="E482" t="s">
-        <v>1099</v>
+        <v>1005</v>
       </c>
       <c r="F482" s="2">
         <v>0</v>
@@ -13725,10 +13974,10 @@
         <v>479</v>
       </c>
       <c r="C483" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="E483" t="s">
-        <v>1100</v>
+        <v>1006</v>
       </c>
       <c r="F483" s="2">
         <v>0</v>
@@ -13745,10 +13994,10 @@
         <v>480</v>
       </c>
       <c r="C484" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="E484" t="s">
-        <v>1101</v>
+        <v>1007</v>
       </c>
       <c r="F484" s="2">
         <v>0</v>
@@ -13765,10 +14014,10 @@
         <v>481</v>
       </c>
       <c r="C485" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="E485" t="s">
-        <v>1102</v>
+        <v>1008</v>
       </c>
       <c r="F485" s="2">
         <v>0</v>
@@ -13785,10 +14034,10 @@
         <v>482</v>
       </c>
       <c r="C486" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="E486" t="s">
-        <v>1103</v>
+        <v>1009</v>
       </c>
       <c r="F486" s="2">
         <v>0</v>
@@ -13805,10 +14054,10 @@
         <v>483</v>
       </c>
       <c r="C487" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="E487" t="s">
-        <v>1104</v>
+        <v>1010</v>
       </c>
       <c r="F487" s="2">
         <v>0</v>
@@ -13825,10 +14074,10 @@
         <v>484</v>
       </c>
       <c r="C488" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="E488" t="s">
-        <v>1105</v>
+        <v>1011</v>
       </c>
       <c r="F488" s="2">
         <v>0</v>
@@ -13845,10 +14094,10 @@
         <v>485</v>
       </c>
       <c r="C489" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="E489" t="s">
-        <v>1106</v>
+        <v>1012</v>
       </c>
       <c r="F489" s="2">
         <v>0</v>
@@ -13865,10 +14114,10 @@
         <v>486</v>
       </c>
       <c r="C490" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="E490" t="s">
-        <v>1107</v>
+        <v>1013</v>
       </c>
       <c r="F490" s="2">
         <v>0</v>
@@ -13885,10 +14134,10 @@
         <v>487</v>
       </c>
       <c r="C491" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="E491" t="s">
-        <v>1108</v>
+        <v>1014</v>
       </c>
       <c r="F491" s="2">
         <v>0</v>
@@ -13905,10 +14154,10 @@
         <v>488</v>
       </c>
       <c r="C492" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="E492" t="s">
-        <v>1109</v>
+        <v>1015</v>
       </c>
       <c r="F492" s="2">
         <v>0</v>
@@ -13925,10 +14174,10 @@
         <v>489</v>
       </c>
       <c r="C493" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="E493" t="s">
-        <v>1110</v>
+        <v>1016</v>
       </c>
       <c r="F493" s="2">
         <v>0</v>
@@ -13945,10 +14194,10 @@
         <v>490</v>
       </c>
       <c r="C494" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="E494" t="s">
-        <v>1111</v>
+        <v>1017</v>
       </c>
       <c r="F494" s="2">
         <v>0</v>
@@ -13965,10 +14214,10 @@
         <v>491</v>
       </c>
       <c r="C495" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="E495" t="s">
-        <v>1112</v>
+        <v>1018</v>
       </c>
       <c r="F495" s="2">
         <v>0</v>
@@ -13985,10 +14234,10 @@
         <v>492</v>
       </c>
       <c r="C496" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="E496" t="s">
-        <v>1113</v>
+        <v>1019</v>
       </c>
       <c r="F496" s="2">
         <v>0</v>
@@ -14005,10 +14254,10 @@
         <v>493</v>
       </c>
       <c r="C497" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="E497" t="s">
-        <v>1114</v>
+        <v>1020</v>
       </c>
       <c r="F497" s="2">
         <v>0</v>
@@ -14025,10 +14274,10 @@
         <v>494</v>
       </c>
       <c r="C498" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
       <c r="E498" t="s">
-        <v>1115</v>
+        <v>1021</v>
       </c>
       <c r="F498" s="2">
         <v>0</v>
@@ -14045,10 +14294,10 @@
         <v>495</v>
       </c>
       <c r="C499" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="E499" t="s">
-        <v>1116</v>
+        <v>1022</v>
       </c>
       <c r="F499" s="2">
         <v>0</v>
@@ -14065,10 +14314,10 @@
         <v>496</v>
       </c>
       <c r="C500" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="E500" t="s">
-        <v>1117</v>
+        <v>1023</v>
       </c>
       <c r="F500" s="2">
         <v>0</v>
@@ -14085,10 +14334,10 @@
         <v>497</v>
       </c>
       <c r="C501" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="E501" t="s">
-        <v>1118</v>
+        <v>1024</v>
       </c>
       <c r="F501" s="2">
         <v>0</v>
@@ -14105,10 +14354,10 @@
         <v>498</v>
       </c>
       <c r="C502" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="E502" t="s">
-        <v>1119</v>
+        <v>1025</v>
       </c>
       <c r="F502" s="2">
         <v>0</v>
@@ -14125,10 +14374,10 @@
         <v>499</v>
       </c>
       <c r="C503" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
       <c r="E503" t="s">
-        <v>1120</v>
+        <v>1026</v>
       </c>
       <c r="F503" s="2">
         <v>0</v>
@@ -14145,10 +14394,10 @@
         <v>500</v>
       </c>
       <c r="C504" t="s">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="E504" t="s">
-        <v>1121</v>
+        <v>1027</v>
       </c>
       <c r="F504" s="2">
         <v>0</v>
@@ -14165,10 +14414,10 @@
         <v>501</v>
       </c>
       <c r="C505" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="E505" t="s">
-        <v>1122</v>
+        <v>1028</v>
       </c>
       <c r="F505" s="2">
         <v>0</v>
@@ -14185,10 +14434,10 @@
         <v>502</v>
       </c>
       <c r="C506" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="E506" t="s">
-        <v>1123</v>
+        <v>1029</v>
       </c>
       <c r="F506" s="2">
         <v>0</v>
@@ -14205,10 +14454,10 @@
         <v>503</v>
       </c>
       <c r="C507" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="E507" t="s">
-        <v>1124</v>
+        <v>1030</v>
       </c>
       <c r="F507" s="2">
         <v>0</v>
@@ -14225,10 +14474,10 @@
         <v>504</v>
       </c>
       <c r="C508" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="E508" t="s">
-        <v>1125</v>
+        <v>1031</v>
       </c>
       <c r="F508" s="2">
         <v>0</v>
@@ -14245,10 +14494,10 @@
         <v>505</v>
       </c>
       <c r="C509" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="E509" t="s">
-        <v>1126</v>
+        <v>1032</v>
       </c>
       <c r="F509" s="2">
         <v>0</v>
@@ -14265,10 +14514,10 @@
         <v>506</v>
       </c>
       <c r="C510" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="E510" t="s">
-        <v>1127</v>
+        <v>1033</v>
       </c>
       <c r="F510" s="2">
         <v>0</v>
@@ -14285,10 +14534,10 @@
         <v>507</v>
       </c>
       <c r="C511" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="E511" t="s">
-        <v>1128</v>
+        <v>1034</v>
       </c>
       <c r="F511" s="2">
         <v>0</v>
@@ -14305,10 +14554,10 @@
         <v>508</v>
       </c>
       <c r="C512" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="E512" t="s">
-        <v>1129</v>
+        <v>1035</v>
       </c>
       <c r="F512" s="2">
         <v>0</v>
@@ -14325,10 +14574,10 @@
         <v>509</v>
       </c>
       <c r="C513" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="E513" t="s">
-        <v>1130</v>
+        <v>1036</v>
       </c>
       <c r="F513" s="2">
         <v>0</v>
@@ -14345,10 +14594,10 @@
         <v>510</v>
       </c>
       <c r="C514" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="E514" t="s">
-        <v>1131</v>
+        <v>1037</v>
       </c>
       <c r="F514" s="2">
         <v>0</v>
@@ -14365,10 +14614,10 @@
         <v>511</v>
       </c>
       <c r="C515" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="E515" t="s">
-        <v>1132</v>
+        <v>1038</v>
       </c>
       <c r="F515" s="2">
         <v>0</v>
@@ -14385,10 +14634,10 @@
         <v>512</v>
       </c>
       <c r="C516" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="E516" t="s">
-        <v>1133</v>
+        <v>1039</v>
       </c>
       <c r="F516" s="2">
         <v>0</v>
@@ -14405,10 +14654,10 @@
         <v>513</v>
       </c>
       <c r="C517" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="E517" t="s">
-        <v>1134</v>
+        <v>1040</v>
       </c>
       <c r="F517" s="2">
         <v>0</v>
@@ -14425,10 +14674,10 @@
         <v>514</v>
       </c>
       <c r="C518" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="E518" t="s">
-        <v>1135</v>
+        <v>1041</v>
       </c>
       <c r="F518" s="2">
         <v>0</v>
@@ -14445,10 +14694,10 @@
         <v>515</v>
       </c>
       <c r="C519" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="E519" t="s">
-        <v>1136</v>
+        <v>1042</v>
       </c>
       <c r="F519" s="2">
         <v>0</v>
@@ -14465,10 +14714,10 @@
         <v>516</v>
       </c>
       <c r="C520" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="E520" t="s">
-        <v>1137</v>
+        <v>1043</v>
       </c>
       <c r="F520" s="2">
         <v>0</v>
@@ -14485,10 +14734,10 @@
         <v>517</v>
       </c>
       <c r="C521" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="E521" t="s">
-        <v>1138</v>
+        <v>1044</v>
       </c>
       <c r="F521" s="2">
         <v>0</v>
@@ -14505,10 +14754,10 @@
         <v>518</v>
       </c>
       <c r="C522" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="E522" t="s">
-        <v>1139</v>
+        <v>1045</v>
       </c>
       <c r="F522" s="2">
         <v>0</v>
@@ -14525,10 +14774,10 @@
         <v>519</v>
       </c>
       <c r="C523" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
       <c r="E523" t="s">
-        <v>1140</v>
+        <v>1046</v>
       </c>
       <c r="F523" s="2">
         <v>0</v>
@@ -14545,10 +14794,10 @@
         <v>520</v>
       </c>
       <c r="C524" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="E524" t="s">
-        <v>1141</v>
+        <v>1047</v>
       </c>
       <c r="F524" s="2">
         <v>0</v>
@@ -14565,10 +14814,10 @@
         <v>521</v>
       </c>
       <c r="C525" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
       <c r="E525" t="s">
-        <v>1142</v>
+        <v>1048</v>
       </c>
       <c r="F525" s="2">
         <v>0</v>
@@ -14585,10 +14834,10 @@
         <v>522</v>
       </c>
       <c r="C526" t="s">
-        <v>543</v>
+        <v>496</v>
       </c>
       <c r="E526" t="s">
-        <v>1143</v>
+        <v>1049</v>
       </c>
       <c r="F526" s="2">
         <v>0</v>
@@ -14605,10 +14854,10 @@
         <v>523</v>
       </c>
       <c r="C527" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="E527" t="s">
-        <v>1144</v>
+        <v>1050</v>
       </c>
       <c r="F527" s="2">
         <v>0</v>
@@ -14625,10 +14874,10 @@
         <v>524</v>
       </c>
       <c r="C528" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="E528" t="s">
-        <v>1145</v>
+        <v>1051</v>
       </c>
       <c r="F528" s="2">
         <v>0</v>
@@ -14645,10 +14894,10 @@
         <v>525</v>
       </c>
       <c r="C529" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
       <c r="E529" t="s">
-        <v>1146</v>
+        <v>1052</v>
       </c>
       <c r="F529" s="2">
         <v>0</v>
@@ -14665,10 +14914,10 @@
         <v>526</v>
       </c>
       <c r="C530" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="E530" t="s">
-        <v>1147</v>
+        <v>1053</v>
       </c>
       <c r="F530" s="2">
         <v>0</v>
@@ -14685,10 +14934,10 @@
         <v>527</v>
       </c>
       <c r="C531" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="E531" t="s">
-        <v>1148</v>
+        <v>1054</v>
       </c>
       <c r="F531" s="2">
         <v>0</v>
@@ -14705,10 +14954,10 @@
         <v>528</v>
       </c>
       <c r="C532" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="E532" t="s">
-        <v>1149</v>
+        <v>1055</v>
       </c>
       <c r="F532" s="2">
         <v>0</v>
@@ -14725,10 +14974,10 @@
         <v>529</v>
       </c>
       <c r="C533" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="E533" t="s">
-        <v>1150</v>
+        <v>1056</v>
       </c>
       <c r="F533" s="2">
         <v>0</v>
@@ -14745,10 +14994,10 @@
         <v>530</v>
       </c>
       <c r="C534" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="E534" t="s">
-        <v>1151</v>
+        <v>1057</v>
       </c>
       <c r="F534" s="2">
         <v>0</v>
@@ -14765,10 +15014,10 @@
         <v>531</v>
       </c>
       <c r="C535" t="s">
-        <v>552</v>
+        <v>505</v>
       </c>
       <c r="E535" t="s">
-        <v>1152</v>
+        <v>1058</v>
       </c>
       <c r="F535" s="2">
         <v>0</v>
@@ -14785,10 +15034,10 @@
         <v>532</v>
       </c>
       <c r="C536" t="s">
-        <v>553</v>
+        <v>506</v>
       </c>
       <c r="E536" t="s">
-        <v>1153</v>
+        <v>1059</v>
       </c>
       <c r="F536" s="2">
         <v>0</v>
@@ -14805,10 +15054,10 @@
         <v>533</v>
       </c>
       <c r="C537" t="s">
-        <v>554</v>
+        <v>507</v>
       </c>
       <c r="E537" t="s">
-        <v>1154</v>
+        <v>1060</v>
       </c>
       <c r="F537" s="2">
         <v>0</v>
@@ -14825,10 +15074,10 @@
         <v>534</v>
       </c>
       <c r="C538" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="E538" t="s">
-        <v>1155</v>
+        <v>1061</v>
       </c>
       <c r="F538" s="2">
         <v>0</v>
@@ -14845,10 +15094,10 @@
         <v>535</v>
       </c>
       <c r="C539" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="E539" t="s">
-        <v>1156</v>
+        <v>1062</v>
       </c>
       <c r="F539" s="2">
         <v>0</v>
@@ -14865,10 +15114,10 @@
         <v>536</v>
       </c>
       <c r="C540" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="E540" t="s">
-        <v>1157</v>
+        <v>1063</v>
       </c>
       <c r="F540" s="2">
         <v>0</v>
@@ -14885,10 +15134,10 @@
         <v>537</v>
       </c>
       <c r="C541" t="s">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="E541" t="s">
-        <v>1158</v>
+        <v>1064</v>
       </c>
       <c r="F541" s="2">
         <v>0</v>
@@ -14905,10 +15154,10 @@
         <v>538</v>
       </c>
       <c r="C542" t="s">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="E542" t="s">
-        <v>1159</v>
+        <v>1065</v>
       </c>
       <c r="F542" s="2">
         <v>0</v>
@@ -14925,10 +15174,10 @@
         <v>539</v>
       </c>
       <c r="C543" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="E543" t="s">
-        <v>1160</v>
+        <v>1066</v>
       </c>
       <c r="F543" s="2">
         <v>0</v>
@@ -14945,10 +15194,10 @@
         <v>540</v>
       </c>
       <c r="C544" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="E544" t="s">
-        <v>1161</v>
+        <v>1067</v>
       </c>
       <c r="F544" s="2">
         <v>0</v>
@@ -14965,10 +15214,10 @@
         <v>541</v>
       </c>
       <c r="C545" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="E545" t="s">
-        <v>1162</v>
+        <v>1068</v>
       </c>
       <c r="F545" s="2">
         <v>0</v>
@@ -14985,10 +15234,10 @@
         <v>542</v>
       </c>
       <c r="C546" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="E546" t="s">
-        <v>1163</v>
+        <v>1069</v>
       </c>
       <c r="F546" s="2">
         <v>0</v>
@@ -15005,10 +15254,10 @@
         <v>543</v>
       </c>
       <c r="C547" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="E547" t="s">
-        <v>1164</v>
+        <v>1070</v>
       </c>
       <c r="F547" s="2">
         <v>0</v>
@@ -15025,10 +15274,10 @@
         <v>544</v>
       </c>
       <c r="C548" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="E548" t="s">
-        <v>1165</v>
+        <v>1071</v>
       </c>
       <c r="F548" s="2">
         <v>0</v>
@@ -15045,10 +15294,10 @@
         <v>545</v>
       </c>
       <c r="C549" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="E549" t="s">
-        <v>1166</v>
+        <v>1072</v>
       </c>
       <c r="F549" s="2">
         <v>0</v>
@@ -15065,10 +15314,10 @@
         <v>546</v>
       </c>
       <c r="C550" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="E550" t="s">
-        <v>1167</v>
+        <v>1073</v>
       </c>
       <c r="F550" s="2">
         <v>0</v>
@@ -15085,10 +15334,10 @@
         <v>547</v>
       </c>
       <c r="C551" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="E551" t="s">
-        <v>1168</v>
+        <v>1074</v>
       </c>
       <c r="F551" s="2">
         <v>0</v>
@@ -15105,10 +15354,10 @@
         <v>548</v>
       </c>
       <c r="C552" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="E552" t="s">
-        <v>1169</v>
+        <v>1075</v>
       </c>
       <c r="F552" s="2">
         <v>0</v>
@@ -15125,10 +15374,10 @@
         <v>549</v>
       </c>
       <c r="C553" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="E553" t="s">
-        <v>1170</v>
+        <v>1076</v>
       </c>
       <c r="F553" s="2">
         <v>0</v>
@@ -15145,10 +15394,10 @@
         <v>550</v>
       </c>
       <c r="C554" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E554" t="s">
-        <v>1171</v>
+        <v>1077</v>
       </c>
       <c r="F554" s="2">
         <v>0</v>
@@ -15165,10 +15414,10 @@
         <v>551</v>
       </c>
       <c r="C555" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="E555" t="s">
-        <v>1172</v>
+        <v>1078</v>
       </c>
       <c r="F555" s="2">
         <v>0</v>
@@ -15185,10 +15434,10 @@
         <v>552</v>
       </c>
       <c r="C556" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="E556" t="s">
-        <v>1173</v>
+        <v>1079</v>
       </c>
       <c r="F556" s="2">
         <v>0</v>
@@ -15205,10 +15454,10 @@
         <v>553</v>
       </c>
       <c r="C557" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="E557" t="s">
-        <v>1174</v>
+        <v>1080</v>
       </c>
       <c r="F557" s="2">
         <v>0</v>
@@ -15225,10 +15474,10 @@
         <v>554</v>
       </c>
       <c r="C558" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="E558" t="s">
-        <v>1175</v>
+        <v>1081</v>
       </c>
       <c r="F558" s="2">
         <v>0</v>
@@ -15245,10 +15494,10 @@
         <v>555</v>
       </c>
       <c r="C559" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="E559" t="s">
-        <v>1176</v>
+        <v>1082</v>
       </c>
       <c r="F559" s="2">
         <v>0</v>
@@ -15265,10 +15514,10 @@
         <v>556</v>
       </c>
       <c r="C560" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="E560" t="s">
-        <v>1177</v>
+        <v>1083</v>
       </c>
       <c r="F560" s="2">
         <v>0</v>
@@ -15285,10 +15534,10 @@
         <v>557</v>
       </c>
       <c r="C561" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="E561" t="s">
-        <v>1178</v>
+        <v>1084</v>
       </c>
       <c r="F561" s="2">
         <v>0</v>
@@ -15305,10 +15554,10 @@
         <v>558</v>
       </c>
       <c r="C562" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="E562" t="s">
-        <v>1179</v>
+        <v>1085</v>
       </c>
       <c r="F562" s="2">
         <v>0</v>
@@ -15325,10 +15574,10 @@
         <v>559</v>
       </c>
       <c r="C563" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="E563" t="s">
-        <v>1180</v>
+        <v>1086</v>
       </c>
       <c r="F563" s="2">
         <v>0</v>
@@ -15345,10 +15594,10 @@
         <v>560</v>
       </c>
       <c r="C564" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="E564" t="s">
-        <v>1181</v>
+        <v>1087</v>
       </c>
       <c r="F564" s="2">
         <v>0</v>
@@ -15365,10 +15614,10 @@
         <v>561</v>
       </c>
       <c r="C565" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="E565" t="s">
-        <v>1182</v>
+        <v>1088</v>
       </c>
       <c r="F565" s="2">
         <v>0</v>
@@ -15385,10 +15634,10 @@
         <v>562</v>
       </c>
       <c r="C566" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="E566" t="s">
-        <v>1183</v>
+        <v>1089</v>
       </c>
       <c r="F566" s="2">
         <v>0</v>
@@ -15405,10 +15654,10 @@
         <v>563</v>
       </c>
       <c r="C567" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="E567" t="s">
-        <v>1184</v>
+        <v>1090</v>
       </c>
       <c r="F567" s="2">
         <v>0</v>
@@ -15425,10 +15674,10 @@
         <v>564</v>
       </c>
       <c r="C568" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="E568" t="s">
-        <v>1185</v>
+        <v>1091</v>
       </c>
       <c r="F568" s="2">
         <v>0</v>
@@ -15445,10 +15694,10 @@
         <v>565</v>
       </c>
       <c r="C569" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
       <c r="E569" t="s">
-        <v>1186</v>
+        <v>1092</v>
       </c>
       <c r="F569" s="2">
         <v>0</v>
@@ -15465,10 +15714,10 @@
         <v>566</v>
       </c>
       <c r="C570" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="E570" t="s">
-        <v>1187</v>
+        <v>1093</v>
       </c>
       <c r="F570" s="2">
         <v>0</v>
@@ -15485,10 +15734,10 @@
         <v>567</v>
       </c>
       <c r="C571" t="s">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="E571" t="s">
-        <v>1188</v>
+        <v>1094</v>
       </c>
       <c r="F571" s="2">
         <v>0</v>
@@ -15505,10 +15754,10 @@
         <v>568</v>
       </c>
       <c r="C572" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="E572" t="s">
-        <v>1189</v>
+        <v>1095</v>
       </c>
       <c r="F572" s="2">
         <v>0</v>
@@ -15525,10 +15774,10 @@
         <v>569</v>
       </c>
       <c r="C573" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="E573" t="s">
-        <v>1190</v>
+        <v>1096</v>
       </c>
       <c r="F573" s="2">
         <v>0</v>
@@ -15545,10 +15794,10 @@
         <v>570</v>
       </c>
       <c r="C574" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="E574" t="s">
-        <v>1191</v>
+        <v>1097</v>
       </c>
       <c r="F574" s="2">
         <v>0</v>
@@ -15565,10 +15814,10 @@
         <v>571</v>
       </c>
       <c r="C575" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="E575" t="s">
-        <v>1192</v>
+        <v>1098</v>
       </c>
       <c r="F575" s="2">
         <v>0</v>
@@ -15585,10 +15834,10 @@
         <v>572</v>
       </c>
       <c r="C576" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="E576" t="s">
-        <v>1193</v>
+        <v>1099</v>
       </c>
       <c r="F576" s="2">
         <v>0</v>
@@ -15605,10 +15854,10 @@
         <v>573</v>
       </c>
       <c r="C577" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="E577" t="s">
-        <v>1194</v>
+        <v>1100</v>
       </c>
       <c r="F577" s="2">
         <v>0</v>
@@ -15625,10 +15874,10 @@
         <v>574</v>
       </c>
       <c r="C578" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="E578" t="s">
-        <v>1195</v>
+        <v>1101</v>
       </c>
       <c r="F578" s="2">
         <v>0</v>
@@ -15645,10 +15894,10 @@
         <v>575</v>
       </c>
       <c r="C579" t="s">
-        <v>596</v>
+        <v>549</v>
       </c>
       <c r="E579" t="s">
-        <v>1196</v>
+        <v>1102</v>
       </c>
       <c r="F579" s="2">
         <v>0</v>
@@ -15665,10 +15914,10 @@
         <v>576</v>
       </c>
       <c r="C580" t="s">
-        <v>597</v>
+        <v>550</v>
       </c>
       <c r="E580" t="s">
-        <v>1197</v>
+        <v>1103</v>
       </c>
       <c r="F580" s="2">
         <v>0</v>
@@ -15685,10 +15934,10 @@
         <v>577</v>
       </c>
       <c r="C581" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="E581" t="s">
-        <v>1198</v>
+        <v>1104</v>
       </c>
       <c r="F581" s="2">
         <v>0</v>
@@ -15705,10 +15954,10 @@
         <v>578</v>
       </c>
       <c r="C582" t="s">
-        <v>599</v>
+        <v>552</v>
       </c>
       <c r="E582" t="s">
-        <v>1199</v>
+        <v>1105</v>
       </c>
       <c r="F582" s="2">
         <v>0</v>
@@ -15725,10 +15974,10 @@
         <v>579</v>
       </c>
       <c r="C583" t="s">
-        <v>600</v>
+        <v>553</v>
       </c>
       <c r="E583" t="s">
-        <v>1200</v>
+        <v>1106</v>
       </c>
       <c r="F583" s="2">
         <v>0</v>
@@ -15745,10 +15994,10 @@
         <v>580</v>
       </c>
       <c r="C584" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="E584" t="s">
-        <v>1201</v>
+        <v>1107</v>
       </c>
       <c r="F584" s="2">
         <v>0</v>
@@ -15765,10 +16014,10 @@
         <v>581</v>
       </c>
       <c r="C585" t="s">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="E585" t="s">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F585" s="2">
         <v>0</v>
@@ -15785,10 +16034,10 @@
         <v>582</v>
       </c>
       <c r="C586" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="E586" t="s">
-        <v>1203</v>
+        <v>1109</v>
       </c>
       <c r="F586" s="2">
         <v>0</v>
@@ -15805,10 +16054,10 @@
         <v>583</v>
       </c>
       <c r="C587" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="E587" t="s">
-        <v>1204</v>
+        <v>1110</v>
       </c>
       <c r="F587" s="2">
         <v>0</v>
@@ -15825,10 +16074,10 @@
         <v>584</v>
       </c>
       <c r="C588" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="E588" t="s">
-        <v>1205</v>
+        <v>1111</v>
       </c>
       <c r="F588" s="2">
         <v>0</v>
@@ -15845,10 +16094,10 @@
         <v>585</v>
       </c>
       <c r="C589" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
       <c r="E589" t="s">
-        <v>1206</v>
+        <v>1112</v>
       </c>
       <c r="F589" s="2">
         <v>0</v>
@@ -15865,10 +16114,10 @@
         <v>586</v>
       </c>
       <c r="C590" t="s">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="E590" t="s">
-        <v>1207</v>
+        <v>1113</v>
       </c>
       <c r="F590" s="2">
         <v>0</v>
@@ -15885,10 +16134,10 @@
         <v>587</v>
       </c>
       <c r="C591" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="E591" t="s">
-        <v>1208</v>
+        <v>1114</v>
       </c>
       <c r="F591" s="2">
         <v>0</v>
@@ -15905,10 +16154,10 @@
         <v>588</v>
       </c>
       <c r="C592" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E592" t="s">
-        <v>1209</v>
+        <v>1115</v>
       </c>
       <c r="F592" s="2">
         <v>0</v>
@@ -15925,10 +16174,10 @@
         <v>589</v>
       </c>
       <c r="C593" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E593" t="s">
-        <v>1210</v>
+        <v>1116</v>
       </c>
       <c r="F593" s="2">
         <v>0</v>
@@ -15945,10 +16194,10 @@
         <v>590</v>
       </c>
       <c r="C594" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="E594" t="s">
-        <v>1211</v>
+        <v>1117</v>
       </c>
       <c r="F594" s="2">
         <v>0</v>
@@ -15965,10 +16214,10 @@
         <v>591</v>
       </c>
       <c r="C595" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="E595" t="s">
-        <v>1212</v>
+        <v>1118</v>
       </c>
       <c r="F595" s="2">
         <v>0</v>
@@ -15985,10 +16234,10 @@
         <v>592</v>
       </c>
       <c r="C596" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E596" t="s">
-        <v>1213</v>
+        <v>1119</v>
       </c>
       <c r="F596" s="2">
         <v>0</v>
@@ -16005,10 +16254,10 @@
         <v>593</v>
       </c>
       <c r="C597" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="E597" t="s">
-        <v>1214</v>
+        <v>1120</v>
       </c>
       <c r="F597" s="2">
         <v>0</v>
@@ -16025,10 +16274,10 @@
         <v>594</v>
       </c>
       <c r="C598" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="E598" t="s">
-        <v>1215</v>
+        <v>1121</v>
       </c>
       <c r="F598" s="2">
         <v>0</v>
@@ -16045,10 +16294,10 @@
         <v>595</v>
       </c>
       <c r="C599" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="E599" t="s">
-        <v>1216</v>
+        <v>1122</v>
       </c>
       <c r="F599" s="2">
         <v>0</v>
@@ -16065,10 +16314,10 @@
         <v>596</v>
       </c>
       <c r="C600" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="E600" t="s">
-        <v>1217</v>
+        <v>1123</v>
       </c>
       <c r="F600" s="2">
         <v>0</v>
@@ -16085,10 +16334,10 @@
         <v>597</v>
       </c>
       <c r="C601" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="E601" t="s">
-        <v>1218</v>
+        <v>1124</v>
       </c>
       <c r="F601" s="2">
         <v>0</v>
@@ -16105,10 +16354,10 @@
         <v>598</v>
       </c>
       <c r="C602" t="s">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="E602" t="s">
-        <v>1219</v>
+        <v>1125</v>
       </c>
       <c r="F602" s="2">
         <v>0</v>
@@ -16125,10 +16374,10 @@
         <v>599</v>
       </c>
       <c r="C603" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="E603" t="s">
-        <v>1220</v>
+        <v>1126</v>
       </c>
       <c r="F603" s="2">
         <v>0</v>
@@ -16145,10 +16394,10 @@
         <v>600</v>
       </c>
       <c r="C604" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="E604" t="s">
-        <v>1221</v>
+        <v>1127</v>
       </c>
       <c r="F604" s="2">
         <v>0</v>
